--- a/fpl20_results.xlsx
+++ b/fpl20_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbshi/Workspace/fpl20ext/fpga/udf_op/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D141C09-0DCD-554E-8261-83685D027AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85151EAA-32EF-DA47-8965-4699F5B95E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="988" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1500" windowWidth="33600" windowHeight="21000" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ubenchmark" sheetId="1" r:id="rId1"/>
@@ -17747,7 +17747,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>308520</xdr:colOff>
+      <xdr:colOff>308519</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
@@ -17783,7 +17783,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>373320</xdr:colOff>
+      <xdr:colOff>373319</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
@@ -23821,13 +23821,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="83.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2"/>
     <col min="3" max="3" width="18.1640625" style="2"/>
     <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
@@ -25425,7 +25425,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26434,7 +26434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -26997,7 +26997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/fpl20_results.xlsx
+++ b/fpl20_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbshi/Workspace/fpl20ext/fpga/udf_op/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85151EAA-32EF-DA47-8965-4699F5B95E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9179C4E-2089-F646-8B0D-ACFB9B93CC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1500" windowWidth="33600" windowHeight="21000" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ubenchmark" sheetId="1" r:id="rId1"/>
@@ -15101,7 +15101,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$J$15</c:f>
+              <c:f>selection!$J$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15145,7 +15145,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$D$16:$D$25</c:f>
+              <c:f>selection!$D$38:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15184,7 +15184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$J$16:$J$25</c:f>
+              <c:f>selection!$J$38:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15233,7 +15233,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$K$15</c:f>
+              <c:f>selection!$K$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15277,7 +15277,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$D$16:$D$25</c:f>
+              <c:f>selection!$D$38:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15316,7 +15316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$K$16:$K$20</c:f>
+              <c:f>selection!$K$38:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15350,7 +15350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$L$15</c:f>
+              <c:f>selection!$L$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15394,7 +15394,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$D$16:$D$25</c:f>
+              <c:f>selection!$D$38:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15433,7 +15433,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$L$16:$L$20</c:f>
+              <c:f>selection!$L$38:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15467,7 +15467,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$I$15</c:f>
+              <c:f>selection!$I$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15511,7 +15511,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$D$16:$D$25</c:f>
+              <c:f>selection!$D$38:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15550,7 +15550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$I$16:$I$23</c:f>
+              <c:f>selection!$I$38:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -16573,7 +16573,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$F$40</c:f>
+              <c:f>selection!$F$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16617,7 +16617,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$E$41:$E$50</c:f>
+              <c:f>selection!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16656,7 +16656,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$F$41:$F$50</c:f>
+              <c:f>selection!$F$104:$F$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16705,7 +16705,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$G$40</c:f>
+              <c:f>selection!$G$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16749,7 +16749,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$E$41:$E$50</c:f>
+              <c:f>selection!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16788,7 +16788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$G$41:$G$50</c:f>
+              <c:f>selection!$G$104:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16837,7 +16837,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$H$40</c:f>
+              <c:f>selection!$H$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16881,7 +16881,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$E$41:$E$50</c:f>
+              <c:f>selection!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16920,7 +16920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$H$41:$H$50</c:f>
+              <c:f>selection!$H$104:$H$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -16969,7 +16969,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$I$40</c:f>
+              <c:f>selection!$I$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17013,7 +17013,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$E$41:$E$50</c:f>
+              <c:f>selection!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -17052,7 +17052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$I$41:$I$50</c:f>
+              <c:f>selection!$I$104:$I$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -17101,7 +17101,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$J$40</c:f>
+              <c:f>selection!$J$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17145,7 +17145,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$E$41:$E$50</c:f>
+              <c:f>selection!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -17184,7 +17184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$J$41:$J$50</c:f>
+              <c:f>selection!$J$104:$J$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -17233,7 +17233,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>selection!$K$40</c:f>
+              <c:f>selection!$K$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17277,7 +17277,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>selection!$E$41:$E$50</c:f>
+              <c:f>selection!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -17316,7 +17316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selection!$K$41:$K$50</c:f>
+              <c:f>selection!$K$104:$K$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -17742,13 +17742,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>318240</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>96480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>308519</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>308520</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17783,7 +17783,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>373319</xdr:colOff>
+      <xdr:colOff>373320</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
@@ -17812,16 +17812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635012</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>131528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>58401</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3655</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23819,10 +23819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23831,7 +23831,7 @@
     <col min="2" max="2" width="9.83203125" style="2"/>
     <col min="3" max="3" width="18.1640625" style="2"/>
     <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2"/>
+    <col min="5" max="5" width="16.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="2"/>
     <col min="7" max="7" width="19.83203125" style="2"/>
     <col min="8" max="8" width="27.5" style="2"/>
@@ -24223,1193 +24223,2202 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.28543400000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.28549400000000003</v>
+      </c>
+      <c r="K14" s="2">
+        <f>B14*C14*4/G14/1000000000</f>
+        <v>8.9687983912217888</v>
+      </c>
+      <c r="L14" s="2">
+        <f>B14*C14*4/H14/1000000000</f>
+        <v>8.966913490301021</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>27</v>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.142869</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="K15" s="2">
+        <f>B15*C15*4/G15/1000000000</f>
+        <v>17.918512763440635</v>
+      </c>
+      <c r="L15" s="2">
+        <f>B15*C15*4/H15/1000000000</f>
+        <v>9.9071207430340564</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B16" s="2">
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>16000000</v>
+        <v>64000000</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.19022600000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.17299400000000001</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>5.76389E-2</v>
+        <v>7.1663699999999997E-2</v>
       </c>
       <c r="H16" s="2">
-        <v>5.7338E-2</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" ref="I16:I25" si="2">B16*C16*4/E16/1000000000</f>
-        <v>3.364419164572666</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" ref="J16:J25" si="3">B16*C16*4/F16/1000000000</f>
-        <v>3.6995502734198871</v>
+        <v>0.25834299999999999</v>
       </c>
       <c r="K16" s="2">
-        <f>B16*C16*4/G16/1000000000</f>
-        <v>11.103612317375939</v>
+        <f t="shared" ref="K16:K23" si="2">B16*C16*4/G16/1000000000</f>
+        <v>35.722408974138929</v>
       </c>
       <c r="L16" s="2">
         <f>B16*C16*4/H16/1000000000</f>
-        <v>11.161882172381317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>9.9093066194942381</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <f>C16*D17</f>
-        <v>32000000</v>
+        <v>64000000</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.197126</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.173569</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2">
-        <v>5.7930000000000002E-2</v>
+        <v>3.60054E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.101051</v>
-      </c>
-      <c r="I17" s="2">
+        <v>0.25841599999999998</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
-        <v>6.4933088481478851</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>7.3745887802545385</v>
-      </c>
-      <c r="K17" s="2">
-        <f>B17*C17*4/G17/1000000000</f>
-        <v>22.095632660107025</v>
+        <v>71.100446044204489</v>
       </c>
       <c r="L17" s="2">
         <f>B17*C17*4/H17/1000000000</f>
-        <v>12.666871183857657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>9.9065073370069978</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <f>C16*D18</f>
         <v>64000000</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.20260500000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.17367299999999999</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2">
-        <v>5.7847999999999997E-2</v>
+        <v>2.1344700000000001E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>0.20081399999999999</v>
-      </c>
-      <c r="I18" s="2">
+        <v>0.25837900000000003</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
-        <v>12.635423607512154</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>14.740345361685467</v>
-      </c>
-      <c r="K18" s="2">
-        <f>B18*C18*4/G18/1000000000</f>
-        <v>44.253906790208823</v>
+        <v>119.93609654855771</v>
       </c>
       <c r="L18" s="2">
         <f>B18*C18*4/H18/1000000000</f>
-        <v>12.748115171253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.9079259537346278</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>10</v>
       </c>
       <c r="C19" s="2">
-        <f>C16*D19</f>
-        <v>128000000</v>
+        <v>64000000</v>
       </c>
       <c r="D19" s="2">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.31917200000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.17444399999999999</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2">
-        <v>5.7833900000000001E-2</v>
+        <v>1.88276E-2</v>
       </c>
       <c r="H19" s="2">
-        <v>0.40075499999999997</v>
-      </c>
-      <c r="I19" s="2">
+        <v>0.258461</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
-        <v>16.04150740039853</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>29.350393249409553</v>
-      </c>
-      <c r="K19" s="2">
-        <f>B19*C19*4/G19/1000000000</f>
-        <v>88.529391931030077</v>
+        <v>135.97059635853745</v>
       </c>
       <c r="L19" s="2">
         <f>B19*C19*4/H19/1000000000</f>
-        <v>12.775885516088385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.9047825397255291</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <f>C16*D20</f>
-        <v>224000000</v>
+        <v>64000000</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.34057199999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.18047199999999999</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
-        <v>5.8250900000000001E-2</v>
+        <v>1.5038299999999999E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>0.54847000000000001</v>
-      </c>
-      <c r="I20" s="2">
+        <v>0.25839899999999999</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
-        <v>26.308680690133073</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>49.647590762001862</v>
-      </c>
-      <c r="K20" s="2">
-        <f>B20*C20*4/G20/1000000000</f>
-        <v>153.817365911943</v>
+        <v>170.23200760724285</v>
       </c>
       <c r="L20" s="2">
         <f>B20*C20*4/H20/1000000000</f>
-        <v>16.336353857093368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.907159083432985</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>10</v>
       </c>
       <c r="C21" s="2">
-        <f>C16*D21</f>
-        <v>256000000</v>
+        <v>64000000</v>
       </c>
       <c r="D21" s="2">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.36110199999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.187727</v>
-      </c>
-      <c r="I21" s="2">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.25437E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
-        <v>28.357638561957565</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>54.547294741832552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>204.08651354863397</v>
+      </c>
+      <c r="L21" s="2">
+        <f>B21*C21*4/H21/1000000000</f>
+        <v>9.9032882011605423</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <f>C16*D22</f>
-        <v>512000000</v>
+        <v>64000000</v>
       </c>
       <c r="D22" s="2">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.425317</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.34774899999999997</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="2"/>
-        <v>48.152319328877056</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>58.893052172687774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.07686E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.258517</v>
+      </c>
+      <c r="K22" s="2">
+        <f>B22*C22*4/G22/1000000000</f>
+        <v>237.72820979514515</v>
+      </c>
+      <c r="L22" s="2">
+        <f>B22*C22*4/H22/1000000000</f>
+        <v>9.9026369639133982</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <f>C16*D23</f>
+        <v>64000000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9.5807300000000008E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.25838899999999998</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>267.20302106415687</v>
+      </c>
+      <c r="L23" s="2">
+        <f>B23*C23*4/H23/1000000000</f>
+        <v>9.9075425037443559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.19022600000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.17299400000000001</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5.76389E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5.7338E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" ref="I38:I47" si="3">B38*C38*4/E38/1000000000</f>
+        <v>3.364419164572666</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" ref="J38:J47" si="4">B38*C38*4/F38/1000000000</f>
+        <v>3.6995502734198871</v>
+      </c>
+      <c r="K38" s="2">
+        <f>B38*C38*4/G38/1000000000</f>
+        <v>11.103612317375939</v>
+      </c>
+      <c r="L38" s="2">
+        <f>B38*C38*4/H38/1000000000</f>
+        <v>11.161882172381317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C38*D39</f>
+        <v>32000000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.197126</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.173569</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5.7930000000000002E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.101051</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>6.4933088481478851</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="4"/>
+        <v>7.3745887802545385</v>
+      </c>
+      <c r="K39" s="2">
+        <f>B39*C39*4/G39/1000000000</f>
+        <v>22.095632660107025</v>
+      </c>
+      <c r="L39" s="2">
+        <f>B39*C39*4/H39/1000000000</f>
+        <v>12.666871183857657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C38*D40</f>
+        <v>64000000</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.20260500000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.17367299999999999</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5.7847999999999997E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.20081399999999999</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>12.635423607512154</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="4"/>
+        <v>14.740345361685467</v>
+      </c>
+      <c r="K40" s="2">
+        <f>B40*C40*4/G40/1000000000</f>
+        <v>44.253906790208823</v>
+      </c>
+      <c r="L40" s="2">
+        <f>B40*C40*4/H40/1000000000</f>
+        <v>12.748115171253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <f>C38*D41</f>
+        <v>128000000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.31917200000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.17444399999999999</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5.7833900000000001E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.40075499999999997</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>16.04150740039853</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="4"/>
+        <v>29.350393249409553</v>
+      </c>
+      <c r="K41" s="2">
+        <f>B41*C41*4/G41/1000000000</f>
+        <v>88.529391931030077</v>
+      </c>
+      <c r="L41" s="2">
+        <f>B41*C41*4/H41/1000000000</f>
+        <v>12.775885516088385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <f>C38*D42</f>
+        <v>224000000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.34057199999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.18047199999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5.8250900000000001E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.54847000000000001</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>26.308680690133073</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="4"/>
+        <v>49.647590762001862</v>
+      </c>
+      <c r="K42" s="2">
+        <f>B42*C42*4/G42/1000000000</f>
+        <v>153.817365911943</v>
+      </c>
+      <c r="L42" s="2">
+        <f>B42*C42*4/H42/1000000000</f>
+        <v>16.336353857093368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <f>C38*D43</f>
+        <v>256000000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.36110199999999998</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.187727</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>28.357638561957565</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="4"/>
+        <v>54.547294741832552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
+        <f>C38*D44</f>
+        <v>512000000</v>
+      </c>
+      <c r="D44" s="2">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.425317</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.34774899999999997</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>48.152319328877056</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="4"/>
+        <v>58.893052172687774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2">
+        <f>C38*D45</f>
         <v>1024000000</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D45" s="2">
         <v>64</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E45" s="2">
         <v>0.72608899999999998</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F45" s="2">
         <v>0.80040299999999998</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
         <v>56.411817284107045</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J45" s="2">
+        <f t="shared" si="4"/>
+        <v>51.174220986178213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1024000000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>128</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.67967</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.50045200000000001</v>
+      </c>
+      <c r="I46" s="2">
         <f t="shared" si="3"/>
-        <v>51.174220986178213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+        <v>60.264540144481877</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="4"/>
+        <v>81.846011205869885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C47" s="2">
         <v>1024000000</v>
       </c>
-      <c r="D24" s="2">
-        <v>128</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.67967</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.50045200000000001</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>60.264540144481877</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="D47" s="2">
+        <v>256</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.71706000000000003</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.43462299999999998</v>
+      </c>
+      <c r="I47" s="2">
         <f t="shared" si="3"/>
-        <v>81.846011205869885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+        <v>57.122137617493649</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="4"/>
+        <v>94.242596457159422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
         <v>10</v>
       </c>
-      <c r="C25" s="2">
-        <v>1024000000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>256</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.71706000000000003</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.43462299999999998</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>57.122137617493649</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>94.242596457159422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C49" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>7.1631600000000004E-2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>7.1688600000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2">
+        <f>D50*C$49</f>
+        <v>32000000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>7.1633299999999997E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.129411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" ref="C51:C58" si="5">D51*C$49</f>
+        <v>64000000</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7.1605600000000005E-2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.25839099999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="5"/>
+        <v>128000000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7.1572200000000002E-2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.271675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="5"/>
+        <v>224000000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7.3803900000000006E-2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.52120500000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="5"/>
+        <v>256000000</v>
+      </c>
+      <c r="D54" s="2">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2">
+        <v>7.38259E-2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.58284100000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="5"/>
+        <v>320000000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>20</v>
+      </c>
+      <c r="G55" s="2">
+        <v>7.3739899999999997E-2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.74912599999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="5"/>
+        <v>384000000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>24</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7.3766100000000001E-2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.94237000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="5"/>
+        <v>448000000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>28</v>
+      </c>
+      <c r="G57" s="2">
+        <v>7.4052900000000005E-2</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1.11788</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="5"/>
+        <v>512000000</v>
+      </c>
+      <c r="D58" s="2">
+        <v>32</v>
+      </c>
+      <c r="G58" s="2">
+        <v>7.3764399999999994E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1.2830999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B65" s="2">
         <v>20</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C65" s="2">
         <v>64000000</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D65" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" ref="E29:E38" si="4">100*D29/C29</f>
+      <c r="E65" s="2">
+        <f t="shared" ref="E65:E74" si="6">100*D65/C65</f>
         <v>0</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F65" s="2">
         <v>0.14494899999999999</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G65" s="2">
         <v>6.4823900000000004E-2</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H65" s="2">
         <v>3.5426100000000002E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I65" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J65" s="2">
         <v>0.40074799999999999</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K65" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B66" s="2">
         <v>20</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C66" s="2">
         <v>64000000</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D66" s="2">
         <v>640</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="4"/>
+      <c r="E66" s="2">
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F66" s="2">
         <v>0.142958</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G66" s="2">
         <v>7.1760900000000002E-2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H66" s="2">
         <v>3.7826100000000001E-2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I66" s="2">
         <v>1.92881E-4</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J66" s="2">
         <v>0.40058199999999999</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K66" s="2">
         <v>2.0098699999999999E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
         <v>20</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C67" s="2">
         <v>64000000</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D67" s="2">
         <v>6400</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="4"/>
+      <c r="E67" s="2">
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F67" s="2">
         <v>0.147564</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G67" s="2">
         <v>7.2110199999999999E-2</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H67" s="2">
         <v>4.7226900000000002E-2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I67" s="2">
         <v>1.0991099999999999E-3</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J67" s="2">
         <v>0.400642</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K67" s="2">
         <v>1.12605E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
         <v>20</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C68" s="2">
         <v>64000000</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D68" s="2">
         <v>64000</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="4"/>
+      <c r="E68" s="2">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F68" s="2">
         <v>0.14871999999999999</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G68" s="2">
         <v>7.3278899999999994E-2</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H68" s="2">
         <v>6.4161999999999997E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I68" s="2">
         <v>2.4199500000000001E-3</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J68" s="2">
         <v>0.40082899999999999</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K68" s="2">
         <v>2.3829900000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
         <v>20</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C69" s="2">
         <v>64000000</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D69" s="2">
         <v>640000</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="4"/>
+      <c r="E69" s="2">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F69" s="2">
         <v>0.15608900000000001</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G69" s="2">
         <v>7.5705999999999996E-2</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H69" s="2">
         <v>6.3971E-2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I69" s="2">
         <v>2.4189900000000002E-3</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J69" s="2">
         <v>0.40077699999999999</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K69" s="2">
         <v>2.3460400000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
         <v>20</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C70" s="2">
         <v>64000000</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D70" s="2">
         <v>6400000</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="4"/>
+      <c r="E70" s="2">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F70" s="2">
         <v>0.29325499999999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G70" s="2">
         <v>8.3682099999999995E-2</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H70" s="2">
         <v>6.4715099999999998E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I70" s="2">
         <v>4.5568900000000001E-3</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J70" s="2">
         <v>0.401229</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K70" s="2">
         <v>4.6780099999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
         <v>20</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C71" s="2">
         <v>64000000</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D71" s="2">
         <v>12800000</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="4"/>
+      <c r="E71" s="2">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F71" s="2">
         <v>0.30804799999999999</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G71" s="2">
         <v>9.8608000000000001E-2</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H71" s="2">
         <v>6.4128199999999996E-2</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I71" s="2">
         <v>7.1609000000000004E-3</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J71" s="2">
         <v>0.40138600000000002</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K71" s="2">
         <v>7.1129799999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
         <v>20</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C72" s="2">
         <v>64000000</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D72" s="2">
         <v>25600000</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="4"/>
+      <c r="E72" s="2">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F72" s="2">
         <v>0.30127599999999999</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G72" s="2">
         <v>0.111002</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H72" s="2">
         <v>6.47171E-2</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I72" s="2">
         <v>1.40719E-2</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J72" s="2">
         <v>0.40121899999999999</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K72" s="2">
         <v>1.4357099999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
         <v>20</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C73" s="2">
         <v>64000000</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D73" s="2">
         <v>51200000</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="4"/>
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F73" s="2">
         <v>0.29957899999999998</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G73" s="2">
         <v>0.147783</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H73" s="2">
         <v>6.4772800000000005E-2</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I73" s="2">
         <v>2.8639999999999999E-2</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J73" s="2">
         <v>0.40440199999999998</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K73" s="2">
         <v>2.8583999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
         <v>20</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C74" s="2">
         <v>64000000</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D74" s="2">
         <v>64000000</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="4"/>
+      <c r="E74" s="2">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F74" s="2">
         <v>0.31274299999999999</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G74" s="2">
         <v>0.162525</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H74" s="2">
         <v>6.4676999999999998E-2</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I74" s="2">
         <v>3.3273900000000002E-2</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J74" s="2">
         <v>0.402138</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K74" s="2">
         <v>3.3433900000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F39" s="2" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D76" s="2">
+        <f>C76*E76</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>8.0864300000000004E-3</v>
+      </c>
+      <c r="I76" s="2">
+        <v>8.1350499999999996E-3</v>
+      </c>
+      <c r="J76" s="2">
+        <f>B76*C76*4/H76/1000000000</f>
+        <v>253.26380120770227</v>
+      </c>
+      <c r="K76" s="2">
+        <f>B76*C76*4/I76/1000000000</f>
+        <v>251.75014290016657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" ref="D77:D85" si="7">C77*E77</f>
+        <v>512000</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H77" s="2">
+        <v>8.3465699999999993E-3</v>
+      </c>
+      <c r="I77" s="2">
+        <v>9.3356900000000007E-3</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" ref="J77:J96" si="8">B77*C77*4/H77/1000000000</f>
+        <v>245.37025388872317</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" ref="K77:K96" si="9">B77*C77*4/I77/1000000000</f>
+        <v>219.37317970069699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="7"/>
+        <v>5120000</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H78" s="2">
+        <v>8.35055E-3</v>
+      </c>
+      <c r="I78" s="2">
+        <v>9.6806600000000007E-3</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="8"/>
+        <v>245.25330666842302</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="9"/>
+        <v>211.5558236731793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="7"/>
+        <v>51200000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>8.3456799999999994E-3</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1.0212499999999999E-2</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="8"/>
+        <v>245.39642066314551</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="9"/>
+        <v>200.53855569155448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="7"/>
+        <v>512000000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>8.3658799999999992E-3</v>
+      </c>
+      <c r="I80" s="2">
+        <v>9.8529199999999994E-3</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="8"/>
+        <v>244.80389391193756</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="9"/>
+        <v>207.85716315569397</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="7"/>
+        <v>5120000000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>10</v>
+      </c>
+      <c r="H81" s="2">
+        <v>8.3495400000000008E-3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1.7534899999999999E-2</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="8"/>
+        <v>245.28297367280112</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="9"/>
+        <v>116.79564753719725</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="7"/>
+        <v>10240000000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2">
+        <v>9.9143500000000006E-3</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0.14530100000000001</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="8"/>
+        <v>206.56926576124505</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="9"/>
+        <v>14.094878906545722</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="7"/>
+        <v>20480000000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1.1663099999999999E-2</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0.27234999999999998</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="8"/>
+        <v>175.59653951350842</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5197356342941077</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="7"/>
+        <v>40960000000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1.37453E-2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0.52324400000000004</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="8"/>
+        <v>148.99638421860561</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9140439259695281</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="7"/>
+        <v>51200000000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>100</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1.4612099999999999E-2</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0.65625999999999995</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="8"/>
+        <v>140.15781441408149</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="9"/>
+        <v>3.1207143510194135</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D87" s="2">
+        <f>C87*E87</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>8.2658700000000002E-2</v>
+      </c>
+      <c r="I87" s="2">
+        <v>8.26736E-2</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="8"/>
+        <v>12.388290645751747</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="9"/>
+        <v>12.386057943527318</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" ref="D88:D96" si="10">C88*E88</f>
+        <v>256000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>8.4121600000000005E-2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>8.5256999999999999E-2</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="8"/>
+        <v>12.172854534388314</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="9"/>
+        <v>12.010743985831075</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="10"/>
+        <v>2560000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H89" s="2">
+        <v>8.3643200000000001E-2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>8.50104E-2</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="8"/>
+        <v>12.242477571398512</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="9"/>
+        <v>12.045585010775152</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="10"/>
+        <v>25600000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>8.2430100000000006E-2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>8.3938600000000002E-2</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="8"/>
+        <v>12.422646581770493</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="9"/>
+        <v>12.199393366103317</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="10"/>
+        <v>256000000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>8.2480700000000004E-2</v>
+      </c>
+      <c r="I91" s="2">
+        <v>8.7164099999999994E-2</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="8"/>
+        <v>12.415025575680128</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="9"/>
+        <v>11.747955867151729</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="10"/>
+        <v>2560000000</v>
+      </c>
+      <c r="E92" s="2">
+        <v>10</v>
+      </c>
+      <c r="H92" s="2">
+        <v>8.2010700000000006E-2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0.117357</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="8"/>
+        <v>12.48617558440545</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="9"/>
+        <v>8.7255127516892887</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="10"/>
+        <v>5120000000</v>
+      </c>
+      <c r="E93" s="2">
+        <v>20</v>
+      </c>
+      <c r="H93" s="2">
+        <v>8.2584400000000002E-2</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.15335299999999999</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="8"/>
+        <v>12.399436213134683</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="9"/>
+        <v>6.6774044198678864</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="10"/>
+        <v>10240000000</v>
+      </c>
+      <c r="E94" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" s="2">
+        <v>8.5577200000000006E-2</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.22009500000000001</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="8"/>
+        <v>11.965803975825336</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="9"/>
+        <v>4.6525364047343185</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="10"/>
+        <v>20480000000</v>
+      </c>
+      <c r="E95" s="2">
+        <v>80</v>
+      </c>
+      <c r="H95" s="2">
+        <v>8.4291400000000002E-2</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.34428199999999998</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="8"/>
+        <v>12.148333044652242</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9743059468691362</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="10"/>
+        <v>25600000000</v>
+      </c>
+      <c r="E96" s="2">
+        <v>100</v>
+      </c>
+      <c r="H96" s="2">
+        <v>8.3509600000000003E-2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.40648699999999999</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="8"/>
+        <v>12.262063283742227</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5191457537387421</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F102" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="2">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
         <v>20</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C104" s="2">
         <v>64000000</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" ref="E41:E50" si="5">100*D41/C41</f>
+      <c r="E104" s="2">
+        <f t="shared" ref="E104:E113" si="11">100*D104/C104</f>
         <v>0</v>
       </c>
-      <c r="F41" s="2">
-        <f t="shared" ref="F41:F50" si="6">B29*C29*4/F29/1000000000</f>
+      <c r="F104" s="2">
+        <f t="shared" ref="F104:F113" si="12">B65*C65*4/F65/1000000000</f>
         <v>35.32276869795583</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" ref="G41:G50" si="7">B29*C29*4/G29/1000000000</f>
+      <c r="G104" s="2">
+        <f t="shared" ref="G104:G113" si="13">B65*C65*4/G65/1000000000</f>
         <v>78.983214524272668</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" ref="H41:H50" si="8">B29*C29*4/H29/1000000000</f>
+      <c r="H104" s="2">
+        <f t="shared" ref="H104:H113" si="14">B65*C65*4/H65/1000000000</f>
         <v>144.52621090100234</v>
       </c>
-      <c r="I41" s="2">
-        <f t="shared" ref="I41:I50" si="9">B29*C29*4/(H29+I29)/1000000000</f>
+      <c r="I104" s="2">
+        <f t="shared" ref="I104:I113" si="15">B65*C65*4/(H65+I65)/1000000000</f>
         <v>144.52621090100234</v>
       </c>
-      <c r="J41" s="2">
-        <f t="shared" ref="J41:J50" si="10">B29*C29*4/J29/1000000000</f>
+      <c r="J104" s="2">
+        <f t="shared" ref="J104:J113" si="16">B65*C65*4/J65/1000000000</f>
         <v>12.776108676774431</v>
       </c>
-      <c r="K41" s="2">
-        <f t="shared" ref="K41:K50" si="11">B29*C29*4/(J29+K29)/1000000000</f>
+      <c r="K104" s="2">
+        <f t="shared" ref="K104:K113" si="17">B65*C65*4/(J65+K65)/1000000000</f>
         <v>12.776108676774431</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
         <v>20</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C105" s="2">
         <v>64000000</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D105" s="2">
         <v>640</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="5"/>
+      <c r="E105" s="2">
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" si="6"/>
+      <c r="F105" s="2">
+        <f t="shared" si="12"/>
         <v>35.814714811343194</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="7"/>
+      <c r="G105" s="2">
+        <f t="shared" si="13"/>
         <v>71.348046080804437</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="8"/>
+      <c r="H105" s="2">
+        <f t="shared" si="14"/>
         <v>135.35627516450282</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="9"/>
+      <c r="I105" s="2">
+        <f t="shared" si="15"/>
         <v>134.66957465272412</v>
       </c>
-      <c r="J42" s="2">
-        <f t="shared" si="10"/>
+      <c r="J105" s="2">
+        <f t="shared" si="16"/>
         <v>12.781403058549811</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K105" s="2">
+        <f t="shared" si="17"/>
+        <v>12.774993365673978</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>20</v>
+      </c>
+      <c r="C106" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="D106" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E106" s="2">
         <f t="shared" si="11"/>
-        <v>12.774993365673978</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="12"/>
+        <v>34.696809519937112</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="13"/>
+        <v>71.002437935271303</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" si="14"/>
+        <v>108.4127901683151</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" si="15"/>
+        <v>105.94708729315744</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="16"/>
+        <v>12.779488920282946</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="17"/>
+        <v>12.743671379543494</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
         <v>20</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C107" s="2">
         <v>64000000</v>
       </c>
-      <c r="D43" s="2">
-        <v>6400</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="6"/>
-        <v>34.696809519937112</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" si="7"/>
-        <v>71.002437935271303</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="8"/>
-        <v>108.4127901683151</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="9"/>
-        <v>105.94708729315744</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="10"/>
-        <v>12.779488920282946</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="D107" s="2">
+        <v>64000</v>
+      </c>
+      <c r="E107" s="2">
         <f t="shared" si="11"/>
-        <v>12.743671379543494</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="12"/>
+        <v>34.427111350188277</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="13"/>
+        <v>69.870044446627887</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="14"/>
+        <v>79.798011283937527</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="15"/>
+        <v>76.897717774862414</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="16"/>
+        <v>12.773526865571103</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="17"/>
+        <v>12.698035095632946</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
         <v>20</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C108" s="2">
         <v>64000000</v>
       </c>
-      <c r="D44" s="2">
-        <v>64000</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="6"/>
-        <v>34.427111350188277</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="7"/>
-        <v>69.870044446627887</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="8"/>
-        <v>79.798011283937527</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="9"/>
-        <v>76.897717774862414</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="10"/>
-        <v>12.773526865571103</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="D108" s="2">
+        <v>640000</v>
+      </c>
+      <c r="E108" s="2">
         <f t="shared" si="11"/>
-        <v>12.698035095632946</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="12"/>
+        <v>32.801798973662457</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="13"/>
+        <v>67.630042532956438</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="14"/>
+        <v>80.036266433227553</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="15"/>
+        <v>77.120059816246396</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="16"/>
+        <v>12.775184204682406</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="17"/>
+        <v>12.700836945464593</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
         <v>20</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C109" s="2">
         <v>64000000</v>
       </c>
-      <c r="D45" s="2">
-        <v>640000</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="6"/>
-        <v>32.801798973662457</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" si="7"/>
-        <v>67.630042532956438</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="8"/>
-        <v>80.036266433227553</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="9"/>
-        <v>77.120059816246396</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="10"/>
-        <v>12.775184204682406</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="D109" s="2">
+        <v>6400000</v>
+      </c>
+      <c r="E109" s="2">
         <f t="shared" si="11"/>
-        <v>12.700836945464593</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="12"/>
+        <v>17.459207856643534</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="13"/>
+        <v>61.18393300359336</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="14"/>
+        <v>79.116002293127877</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="15"/>
+        <v>73.911547798756757</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="16"/>
+        <v>12.760792465150823</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="17"/>
+        <v>12.613726478879979</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
         <v>20</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C110" s="2">
         <v>64000000</v>
       </c>
-      <c r="D46" s="2">
-        <v>6400000</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="6"/>
-        <v>17.459207856643534</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" si="7"/>
-        <v>61.18393300359336</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="8"/>
-        <v>79.116002293127877</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" si="9"/>
-        <v>73.911547798756757</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" si="10"/>
-        <v>12.760792465150823</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="D110" s="2">
+        <v>12800000</v>
+      </c>
+      <c r="E110" s="2">
         <f t="shared" si="11"/>
-        <v>12.613726478879979</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="2">
         <v>20</v>
       </c>
-      <c r="C47" s="2">
+      <c r="F110" s="2">
+        <f t="shared" si="12"/>
+        <v>16.620786370955177</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="13"/>
+        <v>51.922764887230251</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="14"/>
+        <v>79.840070359062011</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" si="15"/>
+        <v>71.820236193190823</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="16"/>
+        <v>12.75580114901865</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="17"/>
+        <v>12.533691026596934</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>20</v>
+      </c>
+      <c r="C111" s="2">
         <v>64000000</v>
       </c>
-      <c r="D47" s="2">
-        <v>12800000</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="5"/>
+      <c r="D111" s="2">
+        <v>25600000</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="12"/>
+        <v>16.994383887199778</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="13"/>
+        <v>46.125295039729011</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="14"/>
+        <v>79.113557313291224</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="15"/>
+        <v>64.983690616710462</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="16"/>
+        <v>12.761110515703393</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="17"/>
+        <v>12.32024652043272</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
         <v>20</v>
       </c>
-      <c r="F47" s="2">
-        <f t="shared" si="6"/>
-        <v>16.620786370955177</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" si="7"/>
-        <v>51.922764887230251</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="8"/>
-        <v>79.840070359062011</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" si="9"/>
-        <v>71.820236193190823</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" si="10"/>
-        <v>12.75580114901865</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="C112" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="D112" s="2">
+        <v>51200000</v>
+      </c>
+      <c r="E112" s="2">
         <f t="shared" si="11"/>
-        <v>12.533691026596934</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+        <v>80</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="12"/>
+        <v>17.090650546266595</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="13"/>
+        <v>34.645392230500121</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" si="14"/>
+        <v>79.045525282217227</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="15"/>
+        <v>54.81047565215902</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="16"/>
+        <v>12.660669333979556</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="17"/>
+        <v>11.824862697639185</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
         <v>20</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C113" s="2">
         <v>64000000</v>
       </c>
-      <c r="D48" s="2">
-        <v>25600000</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="6"/>
-        <v>16.994383887199778</v>
-      </c>
-      <c r="G48" s="2">
-        <f t="shared" si="7"/>
-        <v>46.125295039729011</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="8"/>
-        <v>79.113557313291224</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="9"/>
-        <v>64.983690616710462</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" si="10"/>
-        <v>12.761110515703393</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="D113" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="E113" s="2">
         <f t="shared" si="11"/>
-        <v>12.32024652043272</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2">
-        <v>64000000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>51200000</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="6"/>
-        <v>17.090650546266595</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="7"/>
-        <v>34.645392230500121</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="8"/>
-        <v>79.045525282217227</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="9"/>
-        <v>54.81047565215902</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="10"/>
-        <v>12.660669333979556</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="11"/>
-        <v>11.824862697639185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
-        <v>20</v>
-      </c>
-      <c r="C50" s="2">
-        <v>64000000</v>
-      </c>
-      <c r="D50" s="2">
-        <v>64000000</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="F50" s="2">
-        <f t="shared" si="6"/>
+      <c r="F113" s="2">
+        <f t="shared" si="12"/>
         <v>16.371269700680752</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="7"/>
+      <c r="G113" s="2">
+        <f t="shared" si="13"/>
         <v>31.502845716043687</v>
       </c>
-      <c r="H50" s="2">
-        <f t="shared" si="8"/>
+      <c r="H113" s="2">
+        <f t="shared" si="14"/>
         <v>79.162608036860092</v>
       </c>
-      <c r="I50" s="2">
-        <f t="shared" si="9"/>
+      <c r="I113" s="2">
+        <f t="shared" si="15"/>
         <v>52.271086840447609</v>
       </c>
-      <c r="J50" s="2">
-        <f t="shared" si="10"/>
+      <c r="J113" s="2">
+        <f t="shared" si="16"/>
         <v>12.731947739333263</v>
       </c>
-      <c r="K50" s="2">
-        <f t="shared" si="11"/>
+      <c r="K113" s="2">
+        <f t="shared" si="17"/>
         <v>11.754660941167232</v>
       </c>
     </row>

--- a/fpl20_results.xlsx
+++ b/fpl20_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbshi/Workspace/fpl20ext/fpga/udf_op/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9179C4E-2089-F646-8B0D-ACFB9B93CC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839DD85-D1D0-994A-8021-1B8A2366D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="988" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ubenchmark" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="154">
   <si>
     <t>Bandwidth (300 MHz)</t>
   </si>
@@ -475,6 +475,33 @@
   <si>
     <t>DSP</t>
   </si>
+  <si>
+    <t>FPGA-Lcopy-Time</t>
+  </si>
+  <si>
+    <t>FPGA-Lnotcopy-Runique (w/o k idx opt.)</t>
+  </si>
+  <si>
+    <t>FPGA-Lcopy-Time (#k=8)</t>
+  </si>
+  <si>
+    <t>FPGA-Lcopy-Time (#k=16)</t>
+  </si>
+  <si>
+    <t>FPGA-Lcopy-Time (#k=14)</t>
+  </si>
+  <si>
+    <t>Bit-11 (#k=16)</t>
+  </si>
+  <si>
+    <t>Bit-10 (#k=14)</t>
+  </si>
+  <si>
+    <t>Bit-9 (#k=12)</t>
+  </si>
+  <si>
+    <t>FPGA-Lcopy-Time (#k=12)</t>
+  </si>
 </sst>
 </file>
 
@@ -4023,7 +4050,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$D$22</c:f>
+              <c:f>join!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4073,7 +4100,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4118,7 +4145,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$D$23:$D$34</c:f>
+              <c:f>join!$D$47:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4173,7 +4200,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$E$22</c:f>
+              <c:f>join!$E$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4223,7 +4250,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4268,7 +4295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$E$23:$E$34</c:f>
+              <c:f>join!$E$47:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4323,7 +4350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$F$22</c:f>
+              <c:f>join!$F$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4373,7 +4400,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4418,7 +4445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$F$37:$F$48</c:f>
+              <c:f>join!$F$61:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4437,7 +4464,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$G$22</c:f>
+              <c:f>join!$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4487,7 +4514,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4532,7 +4559,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$G$37:$G$48</c:f>
+              <c:f>join!$G$61:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4551,7 +4578,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$H$22</c:f>
+              <c:f>join!$H$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4601,7 +4628,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4646,7 +4673,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$H$23:$H$34</c:f>
+              <c:f>join!$H$47:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4701,7 +4728,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$I$22</c:f>
+              <c:f>join!$I$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4751,7 +4778,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4796,7 +4823,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$I$23:$I$34</c:f>
+              <c:f>join!$I$47:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4851,7 +4878,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$J$22</c:f>
+              <c:f>join!$J$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4901,7 +4928,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4946,7 +4973,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$J$23:$J$34</c:f>
+              <c:f>join!$J$47:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5001,7 +5028,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$K$22</c:f>
+              <c:f>join!$K$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5051,7 +5078,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5096,7 +5123,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$K$23:$K$34</c:f>
+              <c:f>join!$K$47:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5321,7 +5348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$D$22</c:f>
+              <c:f>join!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5371,7 +5398,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5416,7 +5443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$D$23:$D$34</c:f>
+              <c:f>join!$D$47:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5471,7 +5498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$E$22</c:f>
+              <c:f>join!$E$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5521,7 +5548,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5566,7 +5593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$E$23:$E$34</c:f>
+              <c:f>join!$E$47:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5621,7 +5648,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$H$22</c:f>
+              <c:f>join!$H$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5671,7 +5698,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5716,7 +5743,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$H$23:$H$34</c:f>
+              <c:f>join!$H$47:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5771,7 +5798,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$I$22</c:f>
+              <c:f>join!$I$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5821,7 +5848,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5866,7 +5893,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$I$23:$I$34</c:f>
+              <c:f>join!$I$47:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5921,7 +5948,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$J$22</c:f>
+              <c:f>join!$J$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5971,7 +5998,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6016,7 +6043,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$J$23:$J$34</c:f>
+              <c:f>join!$J$47:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6071,7 +6098,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$K$22</c:f>
+              <c:f>join!$K$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6121,7 +6148,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6166,7 +6193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$K$23:$K$34</c:f>
+              <c:f>join!$K$47:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6221,7 +6248,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$F$22</c:f>
+              <c:f>join!$F$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6271,7 +6298,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6316,7 +6343,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$F$23:$F$34</c:f>
+              <c:f>join!$F$47:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6371,7 +6398,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>join!$G$22</c:f>
+              <c:f>join!$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6421,7 +6448,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>join!$C$23:$C$34</c:f>
+              <c:f>join!$C$47:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6466,7 +6493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>join!$G$23:$G$34</c:f>
+              <c:f>join!$G$47:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -17859,8 +17886,8 @@
       <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370312</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
@@ -17889,16 +17916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1294185</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:colOff>16022</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>191901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17925,16 +17952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>167349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>14708</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>20545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23821,8 +23848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24243,7 +24270,7 @@
         <v>8.9687983912217888</v>
       </c>
       <c r="L14" s="2">
-        <f>B14*C14*4/H14/1000000000</f>
+        <f t="shared" ref="L14:L23" si="2">B14*C14*4/H14/1000000000</f>
         <v>8.966913490301021</v>
       </c>
     </row>
@@ -24268,7 +24295,7 @@
         <v>17.918512763440635</v>
       </c>
       <c r="L15" s="2">
-        <f>B15*C15*4/H15/1000000000</f>
+        <f t="shared" si="2"/>
         <v>9.9071207430340564</v>
       </c>
     </row>
@@ -24289,11 +24316,11 @@
         <v>0.25834299999999999</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ref="K16:K23" si="2">B16*C16*4/G16/1000000000</f>
+        <f t="shared" ref="K16:K23" si="3">B16*C16*4/G16/1000000000</f>
         <v>35.722408974138929</v>
       </c>
       <c r="L16" s="2">
-        <f>B16*C16*4/H16/1000000000</f>
+        <f t="shared" si="2"/>
         <v>9.9093066194942381</v>
       </c>
     </row>
@@ -24314,11 +24341,11 @@
         <v>0.25841599999999998</v>
       </c>
       <c r="K17" s="2">
+        <f t="shared" si="3"/>
+        <v>71.100446044204489</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>71.100446044204489</v>
-      </c>
-      <c r="L17" s="2">
-        <f>B17*C17*4/H17/1000000000</f>
         <v>9.9065073370069978</v>
       </c>
     </row>
@@ -24339,11 +24366,11 @@
         <v>0.25837900000000003</v>
       </c>
       <c r="K18" s="2">
+        <f t="shared" si="3"/>
+        <v>119.93609654855771</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>119.93609654855771</v>
-      </c>
-      <c r="L18" s="2">
-        <f>B18*C18*4/H18/1000000000</f>
         <v>9.9079259537346278</v>
       </c>
     </row>
@@ -24364,11 +24391,11 @@
         <v>0.258461</v>
       </c>
       <c r="K19" s="2">
+        <f t="shared" si="3"/>
+        <v>135.97059635853745</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>135.97059635853745</v>
-      </c>
-      <c r="L19" s="2">
-        <f>B19*C19*4/H19/1000000000</f>
         <v>9.9047825397255291</v>
       </c>
     </row>
@@ -24389,11 +24416,11 @@
         <v>0.25839899999999999</v>
       </c>
       <c r="K20" s="2">
+        <f t="shared" si="3"/>
+        <v>170.23200760724285</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>170.23200760724285</v>
-      </c>
-      <c r="L20" s="2">
-        <f>B20*C20*4/H20/1000000000</f>
         <v>9.907159083432985</v>
       </c>
     </row>
@@ -24414,11 +24441,11 @@
         <v>0.25850000000000001</v>
       </c>
       <c r="K21" s="2">
+        <f t="shared" si="3"/>
+        <v>204.08651354863397</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>204.08651354863397</v>
-      </c>
-      <c r="L21" s="2">
-        <f>B21*C21*4/H21/1000000000</f>
         <v>9.9032882011605423</v>
       </c>
     </row>
@@ -24443,7 +24470,7 @@
         <v>237.72820979514515</v>
       </c>
       <c r="L22" s="2">
-        <f>B22*C22*4/H22/1000000000</f>
+        <f t="shared" si="2"/>
         <v>9.9026369639133982</v>
       </c>
     </row>
@@ -24464,11 +24491,11 @@
         <v>0.25838899999999998</v>
       </c>
       <c r="K23" s="2">
+        <f t="shared" si="3"/>
+        <v>267.20302106415687</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>267.20302106415687</v>
-      </c>
-      <c r="L23" s="2">
-        <f>B23*C23*4/H23/1000000000</f>
         <v>9.9075425037443559</v>
       </c>
     </row>
@@ -24547,11 +24574,11 @@
         <v>5.7338E-2</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" ref="I38:I47" si="3">B38*C38*4/E38/1000000000</f>
+        <f t="shared" ref="I38:I47" si="4">B38*C38*4/E38/1000000000</f>
         <v>3.364419164572666</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" ref="J38:J47" si="4">B38*C38*4/F38/1000000000</f>
+        <f t="shared" ref="J38:J47" si="5">B38*C38*4/F38/1000000000</f>
         <v>3.6995502734198871</v>
       </c>
       <c r="K38" s="2">
@@ -24590,11 +24617,11 @@
         <v>0.101051</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4933088481478851</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3745887802545385</v>
       </c>
       <c r="K39" s="2">
@@ -24633,11 +24660,11 @@
         <v>0.20081399999999999</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.635423607512154</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.740345361685467</v>
       </c>
       <c r="K40" s="2">
@@ -24673,11 +24700,11 @@
         <v>0.40075499999999997</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.04150740039853</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.350393249409553</v>
       </c>
       <c r="K41" s="2">
@@ -24713,11 +24740,11 @@
         <v>0.54847000000000001</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.308680690133073</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.647590762001862</v>
       </c>
       <c r="K42" s="2">
@@ -24747,11 +24774,11 @@
         <v>0.187727</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.357638561957565</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.547294741832552</v>
       </c>
     </row>
@@ -24773,11 +24800,11 @@
         <v>0.34774899999999997</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.152319328877056</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.893052172687774</v>
       </c>
     </row>
@@ -24799,11 +24826,11 @@
         <v>0.80040299999999998</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.411817284107045</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.174220986178213</v>
       </c>
     </row>
@@ -24824,11 +24851,11 @@
         <v>0.50045200000000001</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.264540144481877</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81.846011205869885</v>
       </c>
     </row>
@@ -24849,15 +24876,15 @@
         <v>0.43462299999999998</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.122137617493649</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.242596457159422</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>10</v>
       </c>
@@ -24873,8 +24900,16 @@
       <c r="H49" s="2">
         <v>7.1688600000000005E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="2">
+        <f>B49*C49*4/G49/1000000000</f>
+        <v>8.9346042807922768</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" ref="L49:L58" si="6">B49*C49*4/H49/1000000000</f>
+        <v>8.9275003278066514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>10</v>
       </c>
@@ -24891,13 +24926,21 @@
       <c r="H50" s="2">
         <v>0.129411</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="2">
+        <f>B50*C50*4/G50/1000000000</f>
+        <v>17.868784489895067</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="6"/>
+        <v>9.8909675375354507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>10</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:C58" si="5">D51*C$49</f>
+        <f t="shared" ref="C51:C58" si="7">D51*C$49</f>
         <v>64000000</v>
       </c>
       <c r="D51" s="2">
@@ -24909,13 +24952,21 @@
       <c r="H51" s="2">
         <v>0.25839099999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="2">
+        <f t="shared" ref="K51:K56" si="8">B51*C51*4/G51/1000000000</f>
+        <v>35.751393745740558</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="6"/>
+        <v>9.9074658173078785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>10</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128000000</v>
       </c>
       <c r="D52" s="2">
@@ -24927,13 +24978,21 @@
       <c r="H52" s="2">
         <v>0.271675</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="2">
+        <f t="shared" si="8"/>
+        <v>71.53615509932628</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="6"/>
+        <v>18.846047667249469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>10</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>224000000</v>
       </c>
       <c r="D53" s="2">
@@ -24945,13 +25004,21 @@
       <c r="H53" s="2">
         <v>0.52120500000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="2">
+        <f t="shared" si="8"/>
+        <v>121.40279849709839</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="6"/>
+        <v>17.19093255053194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>10</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256000000</v>
       </c>
       <c r="D54" s="2">
@@ -24963,13 +25030,21 @@
       <c r="H54" s="2">
         <v>0.58284100000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="2">
+        <f t="shared" si="8"/>
+        <v>138.70470932287992</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="6"/>
+        <v>17.569114046540992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>10</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320000000</v>
       </c>
       <c r="D55" s="2">
@@ -24981,13 +25056,21 @@
       <c r="H55" s="2">
         <v>0.74912599999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="2">
+        <f t="shared" si="8"/>
+        <v>173.5830940915298</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="6"/>
+        <v>17.086578225825832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>10</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>384000000</v>
       </c>
       <c r="D56" s="2">
@@ -24999,13 +25082,21 @@
       <c r="H56" s="2">
         <v>0.94237000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="2">
+        <f t="shared" si="8"/>
+        <v>208.22572970510842</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="6"/>
+        <v>16.29933041162176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>10</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>448000000</v>
       </c>
       <c r="D57" s="2">
@@ -25017,13 +25108,21 @@
       <c r="H57" s="2">
         <v>1.11788</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="2">
+        <f>B57*C57*4/G57/1000000000</f>
+        <v>241.98917260498911</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="6"/>
+        <v>16.030343149533046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>10</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>512000000</v>
       </c>
       <c r="D58" s="2">
@@ -25035,8 +25134,16 @@
       <c r="H58" s="2">
         <v>1.2830999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="2">
+        <f t="shared" ref="K58" si="9">B58*C58*4/G58/1000000000</f>
+        <v>277.64070473019507</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="6"/>
+        <v>15.961343620918091</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
@@ -25044,7 +25151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -25093,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" ref="E65:E74" si="6">100*D65/C65</f>
+        <f t="shared" ref="E65:E74" si="10">100*D65/C65</f>
         <v>0</v>
       </c>
       <c r="F65" s="2">
@@ -25129,7 +25236,7 @@
         <v>640</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1E-3</v>
       </c>
       <c r="F66" s="2">
@@ -25162,7 +25269,7 @@
         <v>6400</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F67" s="2">
@@ -25195,7 +25302,7 @@
         <v>64000</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="F68" s="2">
@@ -25228,7 +25335,7 @@
         <v>640000</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F69" s="2">
@@ -25261,7 +25368,7 @@
         <v>6400000</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="F70" s="2">
@@ -25294,7 +25401,7 @@
         <v>12800000</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="F71" s="2">
@@ -25327,7 +25434,7 @@
         <v>25600000</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="F72" s="2">
@@ -25360,7 +25467,7 @@
         <v>51200000</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="F73" s="2">
@@ -25393,7 +25500,7 @@
         <v>64000000</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="F74" s="2">
@@ -25452,7 +25559,7 @@
         <v>512000000</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" ref="D77:D85" si="7">C77*E77</f>
+        <f t="shared" ref="D77:D85" si="11">C77*E77</f>
         <v>512000</v>
       </c>
       <c r="E77" s="2">
@@ -25465,11 +25572,11 @@
         <v>9.3356900000000007E-3</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" ref="J77:J96" si="8">B77*C77*4/H77/1000000000</f>
+        <f t="shared" ref="J77:J96" si="12">B77*C77*4/H77/1000000000</f>
         <v>245.37025388872317</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" ref="K77:K96" si="9">B77*C77*4/I77/1000000000</f>
+        <f t="shared" ref="K77:K96" si="13">B77*C77*4/I77/1000000000</f>
         <v>219.37317970069699</v>
       </c>
     </row>
@@ -25481,7 +25588,7 @@
         <v>512000000</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5120000</v>
       </c>
       <c r="E78" s="2">
@@ -25494,11 +25601,11 @@
         <v>9.6806600000000007E-3</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>245.25330666842302</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>211.5558236731793</v>
       </c>
     </row>
@@ -25510,7 +25617,7 @@
         <v>512000000</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>51200000</v>
       </c>
       <c r="E79" s="2">
@@ -25523,11 +25630,11 @@
         <v>1.0212499999999999E-2</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>245.39642066314551</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>200.53855569155448</v>
       </c>
     </row>
@@ -25539,7 +25646,7 @@
         <v>512000000</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>512000000</v>
       </c>
       <c r="E80" s="2">
@@ -25552,11 +25659,11 @@
         <v>9.8529199999999994E-3</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>244.80389391193756</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>207.85716315569397</v>
       </c>
     </row>
@@ -25568,7 +25675,7 @@
         <v>512000000</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5120000000</v>
       </c>
       <c r="E81" s="2">
@@ -25581,11 +25688,11 @@
         <v>1.7534899999999999E-2</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>245.28297367280112</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>116.79564753719725</v>
       </c>
     </row>
@@ -25597,7 +25704,7 @@
         <v>512000000</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10240000000</v>
       </c>
       <c r="E82" s="2">
@@ -25610,11 +25717,11 @@
         <v>0.14530100000000001</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>206.56926576124505</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14.094878906545722</v>
       </c>
     </row>
@@ -25626,7 +25733,7 @@
         <v>512000000</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20480000000</v>
       </c>
       <c r="E83" s="2">
@@ -25639,11 +25746,11 @@
         <v>0.27234999999999998</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>175.59653951350842</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.5197356342941077</v>
       </c>
     </row>
@@ -25655,7 +25762,7 @@
         <v>512000000</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>40960000000</v>
       </c>
       <c r="E84" s="2">
@@ -25668,11 +25775,11 @@
         <v>0.52324400000000004</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>148.99638421860561</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.9140439259695281</v>
       </c>
     </row>
@@ -25684,7 +25791,7 @@
         <v>512000000</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>51200000000</v>
       </c>
       <c r="E85" s="2">
@@ -25697,11 +25804,11 @@
         <v>0.65625999999999995</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>140.15781441408149</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1207143510194135</v>
       </c>
     </row>
@@ -25726,11 +25833,11 @@
         <v>8.26736E-2</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.388290645751747</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.386057943527318</v>
       </c>
     </row>
@@ -25742,7 +25849,7 @@
         <v>256000000</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" ref="D88:D96" si="10">C88*E88</f>
+        <f t="shared" ref="D88:D96" si="14">C88*E88</f>
         <v>256000</v>
       </c>
       <c r="E88" s="2">
@@ -25755,11 +25862,11 @@
         <v>8.5256999999999999E-2</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.172854534388314</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.010743985831075</v>
       </c>
     </row>
@@ -25771,7 +25878,7 @@
         <v>256000000</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2560000</v>
       </c>
       <c r="E89" s="2">
@@ -25784,11 +25891,11 @@
         <v>8.50104E-2</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.242477571398512</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.045585010775152</v>
       </c>
     </row>
@@ -25800,7 +25907,7 @@
         <v>256000000</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25600000</v>
       </c>
       <c r="E90" s="2">
@@ -25813,11 +25920,11 @@
         <v>8.3938600000000002E-2</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.422646581770493</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.199393366103317</v>
       </c>
     </row>
@@ -25829,7 +25936,7 @@
         <v>256000000</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>256000000</v>
       </c>
       <c r="E91" s="2">
@@ -25842,11 +25949,11 @@
         <v>8.7164099999999994E-2</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.415025575680128</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11.747955867151729</v>
       </c>
     </row>
@@ -25858,7 +25965,7 @@
         <v>256000000</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2560000000</v>
       </c>
       <c r="E92" s="2">
@@ -25871,11 +25978,11 @@
         <v>0.117357</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.48617558440545</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.7255127516892887</v>
       </c>
     </row>
@@ -25887,7 +25994,7 @@
         <v>256000000</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5120000000</v>
       </c>
       <c r="E93" s="2">
@@ -25900,11 +26007,11 @@
         <v>0.15335299999999999</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.399436213134683</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.6774044198678864</v>
       </c>
     </row>
@@ -25916,7 +26023,7 @@
         <v>256000000</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10240000000</v>
       </c>
       <c r="E94" s="2">
@@ -25929,11 +26036,11 @@
         <v>0.22009500000000001</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11.965803975825336</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.6525364047343185</v>
       </c>
     </row>
@@ -25945,7 +26052,7 @@
         <v>256000000</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20480000000</v>
       </c>
       <c r="E95" s="2">
@@ -25958,11 +26065,11 @@
         <v>0.34428199999999998</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.148333044652242</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.9743059468691362</v>
       </c>
     </row>
@@ -25974,7 +26081,7 @@
         <v>256000000</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25600000000</v>
       </c>
       <c r="E96" s="2">
@@ -25987,11 +26094,11 @@
         <v>0.40648699999999999</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.262063283742227</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.5191457537387421</v>
       </c>
     </row>
@@ -26043,31 +26150,31 @@
         <v>0</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" ref="E104:E113" si="11">100*D104/C104</f>
+        <f t="shared" ref="E104:E113" si="15">100*D104/C104</f>
         <v>0</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" ref="F104:F113" si="12">B65*C65*4/F65/1000000000</f>
+        <f t="shared" ref="F104:F113" si="16">B65*C65*4/F65/1000000000</f>
         <v>35.32276869795583</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" ref="G104:G113" si="13">B65*C65*4/G65/1000000000</f>
+        <f t="shared" ref="G104:G113" si="17">B65*C65*4/G65/1000000000</f>
         <v>78.983214524272668</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" ref="H104:H113" si="14">B65*C65*4/H65/1000000000</f>
+        <f t="shared" ref="H104:H113" si="18">B65*C65*4/H65/1000000000</f>
         <v>144.52621090100234</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" ref="I104:I113" si="15">B65*C65*4/(H65+I65)/1000000000</f>
+        <f t="shared" ref="I104:I113" si="19">B65*C65*4/(H65+I65)/1000000000</f>
         <v>144.52621090100234</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" ref="J104:J113" si="16">B65*C65*4/J65/1000000000</f>
+        <f t="shared" ref="J104:J113" si="20">B65*C65*4/J65/1000000000</f>
         <v>12.776108676774431</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" ref="K104:K113" si="17">B65*C65*4/(J65+K65)/1000000000</f>
+        <f t="shared" ref="K104:K113" si="21">B65*C65*4/(J65+K65)/1000000000</f>
         <v>12.776108676774431</v>
       </c>
     </row>
@@ -26082,31 +26189,31 @@
         <v>640</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>35.814714811343194</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>71.348046080804437</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>135.35627516450282</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>134.66957465272412</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.781403058549811</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.774993365673978</v>
       </c>
     </row>
@@ -26121,31 +26228,31 @@
         <v>6400</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>34.696809519937112</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>71.002437935271303</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>108.4127901683151</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>105.94708729315744</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.779488920282946</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.743671379543494</v>
       </c>
     </row>
@@ -26160,31 +26267,31 @@
         <v>64000</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>34.427111350188277</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>69.870044446627887</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79.798011283937527</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>76.897717774862414</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.773526865571103</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.698035095632946</v>
       </c>
     </row>
@@ -26199,31 +26306,31 @@
         <v>640000</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>32.801798973662457</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>67.630042532956438</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>80.036266433227553</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>77.120059816246396</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.775184204682406</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.700836945464593</v>
       </c>
     </row>
@@ -26238,31 +26345,31 @@
         <v>6400000</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17.459207856643534</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>61.18393300359336</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79.116002293127877</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>73.911547798756757</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.760792465150823</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.613726478879979</v>
       </c>
     </row>
@@ -26277,31 +26384,31 @@
         <v>12800000</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16.620786370955177</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>51.922764887230251</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79.840070359062011</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.820236193190823</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.75580114901865</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.533691026596934</v>
       </c>
     </row>
@@ -26316,31 +26423,31 @@
         <v>25600000</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16.994383887199778</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>46.125295039729011</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79.113557313291224</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>64.983690616710462</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.761110515703393</v>
       </c>
       <c r="K111" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.32024652043272</v>
       </c>
     </row>
@@ -26355,31 +26462,31 @@
         <v>51200000</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17.090650546266595</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>34.645392230500121</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79.045525282217227</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>54.81047565215902</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.660669333979556</v>
       </c>
       <c r="K112" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.824862697639185</v>
       </c>
     </row>
@@ -26394,31 +26501,31 @@
         <v>64000000</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16.371269700680752</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>31.502845716043687</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79.162608036860092</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>52.271086840447609</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.731947739333263</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.754660941167232</v>
       </c>
     </row>
@@ -26431,10 +26538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26445,12 +26552,14 @@
     <col min="4" max="4" width="18.1640625" style="2"/>
     <col min="5" max="5" width="21.1640625" style="2"/>
     <col min="6" max="7" width="18.1640625" style="2"/>
-    <col min="8" max="8" width="21.5" style="2"/>
-    <col min="9" max="9" width="23.83203125" style="2"/>
-    <col min="10" max="10" width="23.33203125" style="2"/>
+    <col min="8" max="8" width="27.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="27.6640625" style="2"/>
-    <col min="12" max="13" width="25.1640625" style="2"/>
-    <col min="14" max="1025" width="8.5" style="2"/>
+    <col min="12" max="12" width="25.1640625" style="2"/>
+    <col min="13" max="13" width="25.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="43.1640625" style="2" customWidth="1"/>
+    <col min="15" max="1025" width="8.5" style="2"/>
     <col min="1026" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -26930,7 +27039,7 @@
         <v>2.4465506055297803</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D17" s="2">
         <v>32</v>
       </c>
@@ -26951,7 +27060,7 @@
         <v>3.608747684456211</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D18" s="2">
         <v>64</v>
       </c>
@@ -26972,464 +27081,1246 @@
         <v>3.9175093896468973</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4096</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" ref="I21:J24" si="4">K21+$M21</f>
+        <v>0.395204</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46011400000000002</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.126081</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.19099099999999999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.269123</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.126081</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4096</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33462370000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36939510000000003</v>
+      </c>
+      <c r="K22" s="2">
+        <v>6.3434699999999997E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>9.8206100000000005E-2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.27118900000000001</v>
+      </c>
+      <c r="N22" s="2">
+        <v>6.3434699999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4096</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30334700000000003</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33458840000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.2131E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6.3372399999999995E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.27121600000000001</v>
+      </c>
+      <c r="N23" s="2">
+        <v>6.3396800000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4096</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.28968360000000004</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31166330000000003</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.6656600000000001E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3.8636299999999998E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.27302700000000002</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3.2332199999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4096</v>
+      </c>
+      <c r="D25" s="2">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2">
+        <f>K25+$M25</f>
+        <v>0.28345664000000004</v>
+      </c>
+      <c r="J25" s="2">
+        <f>L25+$M25</f>
+        <v>0.29557900000000004</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9.0626400000000003E-3</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.1184999999999999E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.27439400000000003</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9.1894200000000002E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I27" s="2">
+        <f>$B21*4/M21/1000000000</f>
+        <v>3.8049516392132965</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ref="J27:L27" si="5">$B21*4/J21/1000000000</f>
+        <v>2.2255354107894996</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="5"/>
+        <v>8.1217629936310782</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3615091810608879</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I28" s="2">
+        <f>$B22*4/M22/1000000000</f>
+        <v>3.7759643643363114</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="I28:L31" si="6">$B22*4/J22/1000000000</f>
+        <v>2.7720995757658939</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="6"/>
+        <v>16.142584421460182</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="6"/>
+        <v>10.427050865475769</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I29" s="2">
+        <f>$B23*4/M23/1000000000</f>
+        <v>3.7755884608577661</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="6"/>
+        <v>3.060476693154933</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="6"/>
+        <v>31.869534094799416</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="6"/>
+        <v>16.158453837948382</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I30" s="2">
+        <f>$B24*4/M24/1000000000</f>
+        <v>3.7505448179117815</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="6"/>
+        <v>3.2855969888016969</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="6"/>
+        <v>61.477132187841455</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="6"/>
+        <v>26.503573064708579</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I31" s="2">
+        <f t="shared" si="6"/>
+        <v>3.6125454672714667</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4643868475094641</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="6"/>
+        <v>112.99135792660859</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="6"/>
+        <v>48.336086853906068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B47" s="2">
         <v>512000000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C47" s="2">
         <v>7812</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D47" s="2">
         <v>0.37856316569999998</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E47" s="2">
         <v>0.58814191819999995</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F47" s="2">
         <v>0.38248801230000001</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G47" s="2">
         <v>0.48150897030000001</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H47" s="2">
         <v>0.20307700000000001</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I47" s="2">
         <v>0.39666000000000001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J47" s="2">
         <v>2.7458E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K47" s="2">
         <v>0.22093099999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B48" s="2">
         <v>512000000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C48" s="2">
         <v>15625</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D48" s="2">
         <v>0.3919138908</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E48" s="2">
         <v>0.65696382519999996</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F48" s="2">
         <v>0.4282920361</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G48" s="2">
         <v>0.50841593740000002</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H48" s="2">
         <v>0.22459899999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I48" s="2">
         <v>0.61480400000000002</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J48" s="2">
         <v>4.9798000000000002E-2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K48" s="2">
         <v>0.43796099999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B49" s="2">
         <v>512000000</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25:C34" si="4">C24*2</f>
+      <c r="C49" s="2">
+        <f t="shared" ref="C49:C57" si="7">C48*2</f>
         <v>31250</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D49" s="2">
         <v>0.39341712000000001</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E49" s="2">
         <v>0.7212297916</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F49" s="2">
         <v>0.42837619780000002</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G49" s="2">
         <v>0.49246716499999998</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H49" s="2">
         <v>0.27224300000000001</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I49" s="2">
         <v>1.0467900000000001</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J49" s="2">
         <v>9.6351900000000004E-2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K49" s="2">
         <v>0.87099700000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B50" s="2">
         <v>512000000</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" si="4"/>
+      <c r="C50" s="2">
+        <f t="shared" si="7"/>
         <v>62500</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D50" s="2">
         <v>0.58940601349999999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E50" s="2">
         <v>0.86445617679999998</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F50" s="2">
         <v>0.43841004369999997</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G50" s="2">
         <v>0.51355791090000003</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H50" s="2">
         <v>0.36471199999999998</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I50" s="2">
         <v>1.9187799999999999</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J50" s="2">
         <v>0.188556</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K50" s="2">
         <v>1.7423200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B51" s="2">
         <v>512000000</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" si="4"/>
+      <c r="C51" s="2">
+        <f t="shared" si="7"/>
         <v>125000</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D51" s="2">
         <v>0.65146803860000002</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E51" s="2">
         <v>0.9414250851</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F51" s="2">
         <v>0.48364901539999999</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G51" s="2">
         <v>0.57590198520000002</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H51" s="2">
         <v>0.55164100000000005</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I51" s="2">
         <v>3.6861299999999999</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J51" s="2">
         <v>0.37551899999999999</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K51" s="2">
         <v>3.5104299999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B52" s="2">
         <v>512000000</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" si="4"/>
+      <c r="C52" s="2">
+        <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D52" s="2">
         <v>0.6802511215</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E52" s="2">
         <v>0.93579983710000003</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F52" s="2">
         <v>0.51211500170000002</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G52" s="2">
         <v>0.60963106160000002</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H52" s="2">
         <v>0.90193500000000004</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I52" s="2">
         <v>7.0192899999999998</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J52" s="2">
         <v>0.72629100000000002</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K52" s="2">
         <v>6.8433299999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
         <v>512000000</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" si="4"/>
+      <c r="C53" s="2">
+        <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D53" s="2">
         <v>0.6919088364</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E53" s="2">
         <v>0.94629096980000005</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F53" s="2">
         <v>0.526597023</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G53" s="2">
         <v>0.61020207410000005</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H53" s="2">
         <v>1.6262700000000001</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I53" s="2">
         <v>13.9079</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J53" s="2">
         <v>1.45028</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K53" s="2">
         <v>13.733700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
         <v>512000000</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" si="4"/>
+      <c r="C54" s="2">
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D54" s="2">
         <v>0.69224691390000004</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E54" s="2">
         <v>0.95981693270000001</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F54" s="2">
         <v>0.70489692690000005</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G54" s="2">
         <v>0.76174521449999999</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H54" s="2">
         <v>3.0501200000000002</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I54" s="2">
         <v>27.442799999999998</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J54" s="2">
         <v>2.8752900000000001</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K54" s="2">
         <v>27.2667</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
         <v>512000000</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" si="4"/>
+      <c r="C55" s="2">
+        <f t="shared" si="7"/>
         <v>2000000</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D55" s="2">
         <v>0.76003503800000005</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E55" s="2">
         <v>0.98150396350000002</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F55" s="2">
         <v>1.0135881900999999</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G55" s="2">
         <v>1.1638741493</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H55" s="2">
         <v>5.9260799999999998</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I55" s="2">
         <v>54.709499999999998</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J55" s="2">
         <v>5.7477400000000003</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K55" s="2">
         <v>54.536499999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
         <v>512000000</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" si="4"/>
+      <c r="C56" s="2">
+        <f t="shared" si="7"/>
         <v>4000000</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D56" s="2">
         <v>1.6746280193</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E56" s="2">
         <v>1.7848379612</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F56" s="2">
         <v>1.2876429558</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G56" s="2">
         <v>1.4172730445999999</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H56" s="2">
         <v>11.648099999999999</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I56" s="2">
         <v>109.09</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J56" s="2">
         <v>11.472200000000001</v>
       </c>
-      <c r="K32" s="2">
-        <f>2*K31</f>
+      <c r="K56" s="2">
+        <f>2*K55</f>
         <v>109.07299999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
         <v>512000000</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" si="4"/>
+      <c r="C57" s="2">
+        <f t="shared" si="7"/>
         <v>8000000</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D57" s="2">
         <v>2.6076390743000002</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E57" s="2">
         <v>2.8760771750999998</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F57" s="2">
         <v>1.8409562111</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G57" s="2">
         <v>2.0087490082000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H57" s="2">
         <v>23.092099999999999</v>
       </c>
-      <c r="I33" s="2">
-        <f>2*I32</f>
+      <c r="I57" s="2">
+        <f>2*I56</f>
         <v>218.18</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J57" s="2">
         <v>22.922899999999998</v>
       </c>
-      <c r="K33" s="2">
-        <f>2*K32</f>
+      <c r="K57" s="2">
+        <f>2*K56</f>
         <v>218.14599999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
         <v>512000000</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" si="4"/>
+      <c r="C58" s="2">
+        <f>C57*2</f>
         <v>16000000</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D58" s="2">
         <v>3.0563859940000002</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E58" s="2">
         <v>3.4913392067000002</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F58" s="2">
         <v>1.9822418690000001</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G58" s="2">
         <v>2.0637440681000001</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H58" s="2">
         <v>45.989400000000003</v>
       </c>
-      <c r="I34" s="2">
-        <f>2*I33</f>
+      <c r="I58" s="2">
+        <f>2*I57</f>
         <v>436.36</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J58" s="2">
         <v>45.816200000000002</v>
       </c>
-      <c r="K34" s="2">
-        <f>2*K33</f>
+      <c r="K58" s="2">
+        <f>2*K57</f>
         <v>436.29199999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7812</v>
+      </c>
+      <c r="D63" s="2">
+        <f>C63/2</f>
+        <v>3906</v>
+      </c>
+      <c r="J63" s="2">
+        <v>6.4766699999999996E-2</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.24299100000000001</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C64" s="2">
+        <v>15625</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.12918099999999999</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.62342399999999998</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" ref="C65:C73" si="8">C64*2</f>
+        <v>31250</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.257963</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1.8492999999999999</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="8"/>
+        <v>62500</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.51711499999999999</v>
+      </c>
+      <c r="K66" s="2">
+        <v>3.8714900000000001</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="8"/>
+        <v>125000</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.99907599999999996</v>
+      </c>
+      <c r="K67" s="2">
+        <v>7.4558</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="8"/>
+        <v>250000</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1.9975700000000001</v>
+      </c>
+      <c r="K68" s="2">
+        <v>14.8223</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="8"/>
+        <v>500000</v>
+      </c>
+      <c r="J69" s="2">
+        <v>3.9702299999999999</v>
+      </c>
+      <c r="K69" s="2">
+        <v>31.421600000000002</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="8"/>
+        <v>1000000</v>
+      </c>
+      <c r="J70" s="2">
+        <v>7.9216300000000004</v>
+      </c>
+      <c r="K70" s="2">
+        <v>60.498899999999999</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="J71" s="2">
+        <v>15.8673</v>
+      </c>
+      <c r="K71" s="2">
+        <v>127.429</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="8"/>
+        <v>4000000</v>
+      </c>
+      <c r="J72" s="2">
+        <v>31.651599999999998</v>
+      </c>
+      <c r="K72" s="2">
+        <v>244.42599999999999</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="8"/>
+        <v>8000000</v>
+      </c>
+      <c r="J73" s="2">
+        <v>63.260899999999999</v>
+      </c>
+      <c r="K73" s="2">
+        <v>508.48399999999998</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>512000000</v>
+      </c>
+      <c r="C74" s="2">
+        <f>C73*2</f>
+        <v>16000000</v>
+      </c>
+      <c r="J74" s="2">
+        <v>126.352</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1046.8399999999999</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J77" s="2">
+        <v>3.4000500000000003E-2</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.12500700000000001</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J78" s="2">
+        <v>6.8032599999999999E-2</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0.29690899999999998</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J79" s="2">
+        <v>0.136015</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0.72628800000000004</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J80" s="2">
+        <v>0.27229399999999998</v>
+      </c>
+      <c r="K80" s="2">
+        <v>2.2444199999999999</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J81" s="2">
+        <v>0.52546199999999998</v>
+      </c>
+      <c r="K81" s="2">
+        <v>4.4671200000000004</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J82" s="2">
+        <v>1.04989</v>
+      </c>
+      <c r="K82" s="2">
+        <v>9.1514500000000005</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J83" s="2">
+        <v>2.0930300000000002</v>
+      </c>
+      <c r="K83" s="2">
+        <v>18.153300000000002</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J84" s="2">
+        <v>4.1735100000000003</v>
+      </c>
+      <c r="K84" s="2">
+        <v>36.245600000000003</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J85" s="2">
+        <v>8.3342799999999997</v>
+      </c>
+      <c r="K85" s="2">
+        <v>76.9268</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J86" s="2">
+        <v>16.652899999999999</v>
+      </c>
+      <c r="K86" s="2">
+        <v>148.42099999999999</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J87" s="2">
+        <v>33.408999999999999</v>
+      </c>
+      <c r="K87" s="2">
+        <v>302.06400000000002</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J88" s="2">
+        <v>66.485399999999998</v>
+      </c>
+      <c r="K88" s="2">
+        <v>631.46699999999998</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0.67183599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J89" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J90" s="2">
+        <v>2.98439E-2</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.49429499999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J91" s="2">
+        <v>5.90006E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J92" s="2">
+        <v>0.119799</v>
+      </c>
+    </row>
+    <row r="93" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J93" s="2">
+        <v>0.23625699999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J94" s="2">
+        <v>0.458119</v>
+      </c>
+    </row>
+    <row r="95" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J95" s="2">
+        <v>0.91478599999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <v>1.8174300000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <v>3.63815</v>
+      </c>
+    </row>
+    <row r="98" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <v>7.26518</v>
+      </c>
+    </row>
+    <row r="99" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="100" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
+        <v>29.193899999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
+        <v>83.308199999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J102" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J103" s="2">
+        <v>3.01033E-2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0.482792</v>
+      </c>
+    </row>
+    <row r="104" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J104" s="2">
+        <v>6.0260500000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J105" s="2">
+        <v>0.12031</v>
+      </c>
+    </row>
+    <row r="106" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J106" s="2">
+        <v>0.24094599999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J107" s="2">
+        <v>0.46656500000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J108" s="2">
+        <v>0.93135699999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J109" s="2">
+        <v>1.8506400000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="2">
+        <v>3.7032799999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J111" s="2">
+        <v>7.4034800000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J112" s="2">
+        <v>14.7883</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="2">
+        <v>29.4755</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="2">
+        <v>59.3384</v>
       </c>
     </row>
   </sheetData>
@@ -27444,7 +28335,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28006,8 +28897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="C36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/fpl20_results.xlsx
+++ b/fpl20_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbshi/Workspace/fpl20ext/fpga/udf_op/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839DD85-D1D0-994A-8021-1B8A2366D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109AD6C5-BF1E-BC40-B716-B1375B568B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="988" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="988" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ubenchmark" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
   <si>
     <t>Bandwidth (300 MHz)</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>FPGA-Lcopy-Time (#k=12)</t>
+  </si>
+  <si>
+    <t>dataset (with syn)</t>
   </si>
 </sst>
 </file>
@@ -18031,13 +18034,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>478080</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>151560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>180721</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26540,8 +26543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28895,10 +28898,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28911,9 +28914,10 @@
     <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="53" style="2"/>
-    <col min="9" max="10" width="17.5" style="2"/>
+    <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="2"/>
+    <col min="12" max="12" width="21.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="20.83203125" style="2"/>
     <col min="14" max="14" width="23.6640625" style="2"/>
     <col min="15" max="15" width="10.5" style="2"/>
@@ -29502,1014 +29506,1450 @@
         <v>12.744710077151334</v>
       </c>
     </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>116</v>
-      </c>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H20" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.693326</v>
+        <v>109</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H21" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <f>B21*C21*4/1000000</f>
+        <v>163.84</v>
+      </c>
+      <c r="G21" s="2">
+        <f>J21</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <f>E$21*F$21*G21/1000</f>
+        <v>1.6384000000000001</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>8.4084800000000005E-4</v>
+        <v>0.124334</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:L29" si="2">0.770402*J21/10</f>
-        <v>7.7040200000000003E-2</v>
+        <v>0.12431300000000001</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:M29" si="3">J21*3.3942/10</f>
-        <v>0.33942</v>
+        <f>$I21/K21</f>
+        <v>13.177409236411602</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ref="N21:N29" si="4">0.747845/10*J21</f>
-        <v>7.4784500000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H22" s="2" t="s">
-        <v>123</v>
+        <f>$I21/L21</f>
+        <v>13.179635275474006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G24" si="2">J22</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:I25" si="3">E$21*F$21*G22/1000</f>
+        <v>3.2768000000000002</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
       </c>
       <c r="K22" s="2">
+        <v>0.12428</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.247729</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" ref="M22:M25" si="4">$I22/K22</f>
+        <v>26.36626971355005</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ref="N22:N25" si="5">$I22/L22</f>
+        <v>13.227357313838914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5536000000000003</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.124352</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.49914199999999997</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="4"/>
+        <v>52.702007205352551</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>13.129730617740043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>13.107200000000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.12515699999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.99620699999999995</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="4"/>
+        <v>104.72606406353621</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>13.157104898881459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="2">
+        <f>J25</f>
+        <v>16</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>26.214400000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>16</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.12601999999999999</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.9948600000000001</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="4"/>
+        <v>208.01777495635616</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="5"/>
+        <v>13.140972298807936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <f>B30*C30*4/1000000</f>
+        <v>163.84</v>
+      </c>
+      <c r="G30" s="2">
+        <f>J30</f>
+        <v>16</v>
+      </c>
+      <c r="I30" s="2">
+        <f>E30*F30*G30/1000</f>
+        <v>26.214400000000001</v>
+      </c>
+      <c r="J30" s="2">
+        <v>16</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.12601999999999999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1.9948600000000001</v>
+      </c>
+      <c r="M30" s="2">
+        <f>$I30/K30</f>
+        <v>208.01777495635616</v>
+      </c>
+      <c r="N30" s="2">
+        <f>$I30/L30</f>
+        <v>13.140972298807936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>784</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <f>B31*C31*4/1000000</f>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ref="G31:G33" si="6">J31</f>
+        <v>16</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31:I33" si="7">E31*F31*G31/1000</f>
+        <v>25.088000000000001</v>
+      </c>
+      <c r="J31" s="2">
+        <v>16</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.125995</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1.90964</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31:M34" si="8">$I31/K31</f>
+        <v>199.11901265923251</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" ref="N31:N34" si="9">$I31/L31</f>
+        <v>13.137554722356047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2">
+        <v>32768</v>
+      </c>
+      <c r="C32" s="2">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <f>B32*C32*4/1000000</f>
+        <v>16.515072</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="7"/>
+        <v>2.64241152</v>
+      </c>
+      <c r="J32" s="2">
+        <v>16</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2.4300100000000002E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.205822</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="8"/>
+        <v>108.74076732194517</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="9"/>
+        <v>12.838333705823478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>256</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <f>B33*C33*4/1000000</f>
+        <v>204.8</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="7"/>
+        <v>32.768000000000001</v>
+      </c>
+      <c r="J33" s="2">
+        <v>16</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.215306</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2.5045999999999999</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="8"/>
+        <v>152.19269319015726</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="9"/>
+        <v>13.083127046234928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.693326</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>8.4084800000000005E-4</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" ref="L42:L50" si="10">0.770402*J42/10</f>
+        <v>7.7040200000000003E-2</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" ref="M42:M50" si="11">J42*3.3942/10</f>
+        <v>0.33942</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" ref="N42:N50" si="12">0.747845/10*J42</f>
+        <v>7.4784500000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2">
         <v>4.3118799999999999E-4</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="2"/>
+      <c r="L43" s="2">
+        <f t="shared" si="10"/>
         <v>0.15408040000000001</v>
       </c>
-      <c r="M22" s="2">
-        <f t="shared" si="3"/>
+      <c r="M43" s="2">
+        <f t="shared" si="11"/>
         <v>0.67884</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" si="4"/>
+      <c r="N43" s="2">
+        <f t="shared" si="12"/>
         <v>0.14956900000000001</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J23" s="2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J44" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K44" s="2">
         <v>2.9157500000000003E-4</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="2"/>
+      <c r="L44" s="2">
+        <f t="shared" si="10"/>
         <v>0.23112060000000004</v>
       </c>
-      <c r="M23" s="2">
-        <f t="shared" si="3"/>
+      <c r="M44" s="2">
+        <f t="shared" si="11"/>
         <v>1.0182600000000002</v>
       </c>
-      <c r="N23" s="2">
-        <f t="shared" si="4"/>
+      <c r="N44" s="2">
+        <f t="shared" si="12"/>
         <v>0.22435350000000001</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J24" s="2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J45" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K45" s="2">
         <v>2.2086E-4</v>
       </c>
-      <c r="L24" s="2">
-        <f t="shared" si="2"/>
+      <c r="L45" s="2">
+        <f t="shared" si="10"/>
         <v>0.30816080000000001</v>
       </c>
-      <c r="M24" s="2">
-        <f t="shared" si="3"/>
+      <c r="M45" s="2">
+        <f t="shared" si="11"/>
         <v>1.35768</v>
       </c>
-      <c r="N24" s="2">
-        <f t="shared" si="4"/>
+      <c r="N45" s="2">
+        <f t="shared" si="12"/>
         <v>0.29913800000000001</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J25" s="2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J46" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K46" s="2">
         <v>1.7805100000000001E-4</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="2"/>
+      <c r="L46" s="2">
+        <f t="shared" si="10"/>
         <v>0.38520100000000002</v>
       </c>
-      <c r="M25" s="2">
-        <f t="shared" si="3"/>
+      <c r="M46" s="2">
+        <f t="shared" si="11"/>
         <v>1.6971000000000001</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" si="4"/>
+      <c r="N46" s="2">
+        <f t="shared" si="12"/>
         <v>0.37392250000000005</v>
       </c>
     </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J26" s="2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J47" s="2">
         <v>6</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K47" s="2">
         <v>1.4931999999999999E-4</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="2"/>
+      <c r="L47" s="2">
+        <f t="shared" si="10"/>
         <v>0.46224120000000007</v>
       </c>
-      <c r="M26" s="2">
-        <f t="shared" si="3"/>
+      <c r="M47" s="2">
+        <f t="shared" si="11"/>
         <v>2.0365200000000003</v>
       </c>
-      <c r="N26" s="2">
-        <f t="shared" si="4"/>
+      <c r="N47" s="2">
+        <f t="shared" si="12"/>
         <v>0.44870700000000002</v>
       </c>
     </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J27" s="2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J48" s="2">
         <v>7</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K48" s="2">
         <v>1.2868800000000001E-4</v>
       </c>
-      <c r="L27" s="2">
-        <f t="shared" si="2"/>
+      <c r="L48" s="2">
+        <f t="shared" si="10"/>
         <v>0.53928140000000002</v>
       </c>
-      <c r="M27" s="2">
-        <f t="shared" si="3"/>
+      <c r="M48" s="2">
+        <f t="shared" si="11"/>
         <v>2.3759399999999999</v>
       </c>
-      <c r="N27" s="2">
-        <f t="shared" si="4"/>
+      <c r="N48" s="2">
+        <f t="shared" si="12"/>
         <v>0.5234915</v>
-      </c>
-    </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J28" s="2">
-        <v>8</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1.1314700000000001E-4</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="2"/>
-        <v>0.61632160000000002</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="3"/>
-        <v>2.71536</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.59827600000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J29" s="2">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1.0101499999999999E-4</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="2"/>
-        <v>0.69336180000000003</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0547800000000001</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.67306050000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="J30" s="2">
-        <v>10</v>
-      </c>
-      <c r="K30" s="4">
-        <v>9.1280799999999995E-5</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.77040200000000003</v>
-      </c>
-      <c r="M30" s="2">
-        <v>3.3942000000000001</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.74784499999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="I32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.693326</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>8.4076300000000001E-4</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" ref="M34:M42" si="5">3.18313*J34/10</f>
-        <v>0.31831299999999996</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" ref="N34:N42" si="6">0.507621*J34/10</f>
-        <v>5.0762099999999998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J35" s="2">
-        <v>2</v>
-      </c>
-      <c r="K35" s="2">
-        <v>4.3115299999999998E-4</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="5"/>
-        <v>0.63662599999999991</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1015242</v>
-      </c>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J36" s="2">
-        <v>3</v>
-      </c>
-      <c r="K36" s="2">
-        <v>2.91532E-4</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="5"/>
-        <v>0.95493899999999987</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="6"/>
-        <v>0.15228630000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J37" s="2">
-        <v>4</v>
-      </c>
-      <c r="K37" s="2">
-        <v>2.20795E-4</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2732519999999998</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="6"/>
-        <v>0.20304839999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J38" s="2">
-        <v>5</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1.77954E-4</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5915649999999999</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25381049999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J39" s="2">
-        <v>6</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1.4919099999999999E-4</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9098779999999997</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="6"/>
-        <v>0.30457260000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J40" s="2">
-        <v>7</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1.2852499999999999E-4</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="5"/>
-        <v>2.2281909999999998</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="6"/>
-        <v>0.3553347</v>
-      </c>
-    </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J41" s="2">
-        <v>8</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1.1294999999999999E-4</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5465039999999997</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="6"/>
-        <v>0.40609679999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J42" s="2">
-        <v>9</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1.00789E-4</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="5"/>
-        <v>2.8648169999999995</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="6"/>
-        <v>0.45685890000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J43" s="2">
-        <v>10</v>
-      </c>
-      <c r="K43" s="4">
-        <v>9.1024299999999995E-5</v>
-      </c>
-      <c r="M43" s="2">
-        <v>3.1831299999999998</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.50762099999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.693326</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>8.4061599999999998E-4</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" ref="M47:M55" si="7">3.07495*J47/10</f>
-        <v>0.30749499999999996</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" ref="N47:N55" si="8">0.387487*J47/10</f>
-        <v>3.8748700000000004E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J48" s="2">
-        <v>2</v>
-      </c>
-      <c r="K48" s="2">
-        <v>4.3111499999999998E-4</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="7"/>
-        <v>0.61498999999999993</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="8"/>
-        <v>7.7497400000000008E-2</v>
       </c>
     </row>
     <row r="49" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J49" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K49" s="2">
-        <v>2.91515E-4</v>
+        <v>1.1314700000000001E-4</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="10"/>
+        <v>0.61632160000000002</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="7"/>
-        <v>0.922485</v>
+        <f t="shared" si="11"/>
+        <v>2.71536</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="8"/>
-        <v>0.11624609999999999</v>
+        <f t="shared" si="12"/>
+        <v>0.59827600000000003</v>
       </c>
     </row>
     <row r="50" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J50" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>2.20781E-4</v>
+        <v>1.0101499999999999E-4</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="10"/>
+        <v>0.69336180000000003</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="7"/>
-        <v>1.2299799999999999</v>
+        <f t="shared" si="11"/>
+        <v>3.0547800000000001</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="8"/>
-        <v>0.15499480000000002</v>
+        <f t="shared" si="12"/>
+        <v>0.67306050000000006</v>
       </c>
     </row>
     <row r="51" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J51" s="2">
-        <v>5</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1.7793799999999999E-4</v>
+        <v>10</v>
+      </c>
+      <c r="K51" s="4">
+        <v>9.1280799999999995E-5</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.77040200000000003</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="7"/>
-        <v>1.5374749999999999</v>
+        <v>3.3942000000000001</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="8"/>
-        <v>0.19374350000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J52" s="2">
-        <v>6</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1.4916699999999999E-4</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="7"/>
-        <v>1.84497</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="8"/>
-        <v>0.23249219999999998</v>
+        <v>0.74784499999999998</v>
       </c>
     </row>
     <row r="53" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J53" s="2">
-        <v>7</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1.2849399999999999E-4</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="7"/>
-        <v>2.1524649999999999</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="8"/>
-        <v>0.27124090000000001</v>
+      <c r="I53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I54" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="J54" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
-        <v>1.12911E-4</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="7"/>
-        <v>2.4599599999999997</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="8"/>
-        <v>0.30998960000000003</v>
+        <v>0.693326</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J55" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2">
-        <v>1.00739E-4</v>
+        <v>8.4076300000000001E-4</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="7"/>
-        <v>2.767455</v>
+        <f t="shared" ref="M55:M63" si="13">3.18313*J55/10</f>
+        <v>0.31831299999999996</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="8"/>
-        <v>0.34873830000000006</v>
+        <f t="shared" ref="N55:N63" si="14">0.507621*J55/10</f>
+        <v>5.0762099999999998E-2</v>
       </c>
     </row>
     <row r="56" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J56" s="2">
-        <v>10</v>
-      </c>
-      <c r="K56" s="4">
-        <v>9.0964600000000007E-5</v>
+        <v>2</v>
+      </c>
+      <c r="K56" s="2">
+        <v>4.3115299999999998E-4</v>
       </c>
       <c r="M56" s="2">
-        <v>3.0749499999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.63662599999999991</v>
       </c>
       <c r="N56" s="2">
-        <v>0.38748700000000003</v>
+        <f t="shared" si="14"/>
+        <v>0.1015242</v>
+      </c>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J57" s="2">
+        <v>3</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2.91532E-4</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="13"/>
+        <v>0.95493899999999987</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15228630000000001</v>
       </c>
     </row>
     <row r="58" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>118</v>
+      <c r="J58" s="2">
+        <v>4</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2.20795E-4</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2732519999999998</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="14"/>
+        <v>0.20304839999999999</v>
       </c>
     </row>
     <row r="59" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I59" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="J59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K59" s="2">
-        <v>0.693326</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>121</v>
+        <v>1.77954E-4</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5915649999999999</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="14"/>
+        <v>0.25381049999999999</v>
       </c>
     </row>
     <row r="60" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J60" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K60" s="2">
-        <v>8.4035499999999999E-4</v>
+        <v>1.4919099999999999E-4</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" ref="M60:M68" si="9">3.02188*J60/10</f>
-        <v>0.30218800000000001</v>
+        <f t="shared" si="13"/>
+        <v>1.9098779999999997</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" ref="N60:N68" si="10">0.327437*J60/10</f>
-        <v>3.2743700000000001E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.30457260000000003</v>
       </c>
     </row>
     <row r="61" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J61" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K61" s="2">
-        <v>4.3105900000000002E-4</v>
+        <v>1.2852499999999999E-4</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="9"/>
-        <v>0.60437600000000002</v>
+        <f t="shared" si="13"/>
+        <v>2.2281909999999998</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="10"/>
-        <v>6.5487400000000001E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.3553347</v>
       </c>
     </row>
     <row r="62" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J62" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K62" s="2">
-        <v>2.91494E-4</v>
+        <v>1.1294999999999999E-4</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="9"/>
-        <v>0.90656400000000004</v>
+        <f t="shared" si="13"/>
+        <v>2.5465039999999997</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="10"/>
-        <v>9.8231099999999988E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.40609679999999998</v>
       </c>
     </row>
     <row r="63" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J63" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K63" s="2">
-        <v>2.20771E-4</v>
+        <v>1.00789E-4</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="9"/>
-        <v>1.208752</v>
+        <f t="shared" si="13"/>
+        <v>2.8648169999999995</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1309748</v>
+        <f t="shared" si="14"/>
+        <v>0.45685890000000001</v>
       </c>
     </row>
     <row r="64" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J64" s="2">
-        <v>5</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1.77935E-4</v>
+        <v>10</v>
+      </c>
+      <c r="K64" s="4">
+        <v>9.1024299999999995E-5</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5109399999999999</v>
+        <v>3.1831299999999998</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="10"/>
-        <v>0.16371849999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J65" s="2">
-        <v>6</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1.49166E-4</v>
-      </c>
-      <c r="M65" s="2">
-        <f t="shared" si="9"/>
-        <v>1.8131280000000001</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="10"/>
-        <v>0.19646219999999998</v>
+        <v>0.50762099999999999</v>
       </c>
     </row>
     <row r="66" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J66" s="2">
-        <v>7</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1.28493E-4</v>
-      </c>
-      <c r="M66" s="2">
-        <f t="shared" si="9"/>
-        <v>2.115316</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22920590000000002</v>
+      <c r="I66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I67" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="J67" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>1.1291E-4</v>
-      </c>
-      <c r="M67" s="2">
-        <f t="shared" si="9"/>
-        <v>2.4175040000000001</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="10"/>
-        <v>0.2619496</v>
+        <v>0.693326</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J68" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2">
-        <v>1.0073699999999999E-4</v>
+        <v>8.4061599999999998E-4</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="9"/>
-        <v>2.7196919999999998</v>
+        <f t="shared" ref="M68:M76" si="15">3.07495*J68/10</f>
+        <v>0.30749499999999996</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="10"/>
-        <v>0.29469329999999994</v>
+        <f t="shared" ref="N68:N76" si="16">0.387487*J68/10</f>
+        <v>3.8748700000000004E-2</v>
       </c>
     </row>
     <row r="69" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J69" s="2">
-        <v>10</v>
-      </c>
-      <c r="K69" s="4">
-        <v>9.0960900000000005E-5</v>
+        <v>2</v>
+      </c>
+      <c r="K69" s="2">
+        <v>4.3111499999999998E-4</v>
       </c>
       <c r="M69" s="2">
-        <v>3.0218799999999999</v>
+        <f t="shared" si="15"/>
+        <v>0.61498999999999993</v>
       </c>
       <c r="N69" s="2">
-        <v>0.32743699999999998</v>
+        <f t="shared" si="16"/>
+        <v>7.7497400000000008E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J70" s="2">
+        <v>3</v>
+      </c>
+      <c r="K70" s="2">
+        <v>2.91515E-4</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="15"/>
+        <v>0.922485</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="16"/>
+        <v>0.11624609999999999</v>
       </c>
     </row>
     <row r="71" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>118</v>
+      <c r="J71" s="2">
+        <v>4</v>
+      </c>
+      <c r="K71" s="2">
+        <v>2.20781E-4</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2299799999999999</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="16"/>
+        <v>0.15499480000000002</v>
       </c>
     </row>
     <row r="72" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I72" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K72" s="2">
-        <v>0.693326</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>121</v>
+        <v>1.7793799999999999E-4</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="15"/>
+        <v>1.5374749999999999</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="16"/>
+        <v>0.19374350000000001</v>
       </c>
     </row>
     <row r="73" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J73" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K73" s="2">
-        <v>8.3983599999999995E-4</v>
+        <v>1.4916699999999999E-4</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" ref="M73:M81" si="11">2.98542*J73/10</f>
-        <v>0.29854199999999997</v>
+        <f t="shared" si="15"/>
+        <v>1.84497</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" ref="N73:N81" si="12">0.297459*J73/10</f>
-        <v>2.9745899999999999E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.23249219999999998</v>
       </c>
     </row>
     <row r="74" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J74" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K74" s="2">
-        <v>4.3094299999999998E-4</v>
+        <v>1.2849399999999999E-4</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="11"/>
-        <v>0.59708399999999995</v>
+        <f t="shared" si="15"/>
+        <v>2.1524649999999999</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="12"/>
-        <v>5.9491799999999997E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.27124090000000001</v>
       </c>
     </row>
     <row r="75" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J75" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K75" s="2">
-        <v>2.9145000000000001E-4</v>
+        <v>1.12911E-4</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="11"/>
-        <v>0.89562600000000003</v>
+        <f t="shared" si="15"/>
+        <v>2.4599599999999997</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="12"/>
-        <v>8.9237700000000003E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.30998960000000003</v>
       </c>
     </row>
     <row r="76" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J76" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K76" s="2">
-        <v>2.20752E-4</v>
+        <v>1.00739E-4</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1941679999999999</v>
+        <f t="shared" si="15"/>
+        <v>2.767455</v>
       </c>
       <c r="N76" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11898359999999999</v>
+        <f t="shared" si="16"/>
+        <v>0.34873830000000006</v>
       </c>
     </row>
     <row r="77" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J77" s="2">
+        <v>10</v>
+      </c>
+      <c r="K77" s="4">
+        <v>9.0964600000000007E-5</v>
+      </c>
+      <c r="M77" s="2">
+        <v>3.0749499999999999</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0.38748700000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0.693326</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>8.4035499999999999E-4</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" ref="M81:M89" si="17">3.02188*J81/10</f>
+        <v>0.30218800000000001</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" ref="N81:N89" si="18">0.327437*J81/10</f>
+        <v>3.2743700000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J82" s="2">
+        <v>2</v>
+      </c>
+      <c r="K82" s="2">
+        <v>4.3105900000000002E-4</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="17"/>
+        <v>0.60437600000000002</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="18"/>
+        <v>6.5487400000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J83" s="2">
+        <v>3</v>
+      </c>
+      <c r="K83" s="2">
+        <v>2.91494E-4</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="17"/>
+        <v>0.90656400000000004</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="18"/>
+        <v>9.8231099999999988E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J84" s="2">
+        <v>4</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2.20771E-4</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="17"/>
+        <v>1.208752</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="18"/>
+        <v>0.1309748</v>
+      </c>
+    </row>
+    <row r="85" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J85" s="2">
         <v>5</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K85" s="2">
+        <v>1.77935E-4</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="17"/>
+        <v>1.5109399999999999</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="18"/>
+        <v>0.16371849999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J86" s="2">
+        <v>6</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1.49166E-4</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8131280000000001</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="18"/>
+        <v>0.19646219999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J87" s="2">
+        <v>7</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1.28493E-4</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="17"/>
+        <v>2.115316</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="18"/>
+        <v>0.22920590000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J88" s="2">
+        <v>8</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1.1291E-4</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="17"/>
+        <v>2.4175040000000001</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="18"/>
+        <v>0.2619496</v>
+      </c>
+    </row>
+    <row r="89" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J89" s="2">
+        <v>9</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1.0073699999999999E-4</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="17"/>
+        <v>2.7196919999999998</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="18"/>
+        <v>0.29469329999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J90" s="2">
+        <v>10</v>
+      </c>
+      <c r="K90" s="4">
+        <v>9.0960900000000005E-5</v>
+      </c>
+      <c r="M90" s="2">
+        <v>3.0218799999999999</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0.32743699999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0.693326</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
+        <v>8.3983599999999995E-4</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" ref="M94:M102" si="19">2.98542*J94/10</f>
+        <v>0.29854199999999997</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" ref="N94:N102" si="20">0.297459*J94/10</f>
+        <v>2.9745899999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J95" s="2">
+        <v>2</v>
+      </c>
+      <c r="K95" s="2">
+        <v>4.3094299999999998E-4</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="19"/>
+        <v>0.59708399999999995</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="20"/>
+        <v>5.9491799999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <v>3</v>
+      </c>
+      <c r="K96" s="2">
+        <v>2.9145000000000001E-4</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="19"/>
+        <v>0.89562600000000003</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="20"/>
+        <v>8.9237700000000003E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <v>4</v>
+      </c>
+      <c r="K97" s="2">
+        <v>2.20752E-4</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1941679999999999</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="20"/>
+        <v>0.11898359999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <v>5</v>
+      </c>
+      <c r="K98" s="2">
         <v>1.7792599999999999E-4</v>
       </c>
-      <c r="M77" s="2">
-        <f t="shared" si="11"/>
+      <c r="M98" s="2">
+        <f t="shared" si="19"/>
         <v>1.49271</v>
       </c>
-      <c r="N77" s="2">
-        <f t="shared" si="12"/>
+      <c r="N98" s="2">
+        <f t="shared" si="20"/>
         <v>0.14872949999999999</v>
       </c>
     </row>
-    <row r="78" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J78" s="2">
+    <row r="99" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
         <v>6</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K99" s="2">
         <v>1.4916300000000001E-4</v>
       </c>
-      <c r="M78" s="2">
-        <f t="shared" si="11"/>
+      <c r="M99" s="2">
+        <f t="shared" si="19"/>
         <v>1.7912520000000001</v>
       </c>
-      <c r="N78" s="2">
-        <f t="shared" si="12"/>
+      <c r="N99" s="2">
+        <f t="shared" si="20"/>
         <v>0.17847540000000001</v>
       </c>
     </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J79" s="2">
+    <row r="100" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
         <v>7</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K100" s="2">
         <v>1.28493E-4</v>
       </c>
-      <c r="M79" s="2">
-        <f t="shared" si="11"/>
+      <c r="M100" s="2">
+        <f t="shared" si="19"/>
         <v>2.0897939999999999</v>
       </c>
-      <c r="N79" s="2">
-        <f t="shared" si="12"/>
+      <c r="N100" s="2">
+        <f t="shared" si="20"/>
         <v>0.2082213</v>
       </c>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J80" s="2">
+    <row r="101" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
         <v>8</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K101" s="2">
         <v>1.12911E-4</v>
       </c>
-      <c r="M80" s="2">
-        <f t="shared" si="11"/>
+      <c r="M101" s="2">
+        <f t="shared" si="19"/>
         <v>2.3883359999999998</v>
       </c>
-      <c r="N80" s="2">
-        <f t="shared" si="12"/>
+      <c r="N101" s="2">
+        <f t="shared" si="20"/>
         <v>0.23796719999999999</v>
       </c>
     </row>
-    <row r="81" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J81" s="2">
+    <row r="102" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J102" s="2">
         <v>9</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K102" s="2">
         <v>1.00739E-4</v>
       </c>
-      <c r="M81" s="2">
-        <f t="shared" si="11"/>
+      <c r="M102" s="2">
+        <f t="shared" si="19"/>
         <v>2.6868780000000001</v>
       </c>
-      <c r="N81" s="2">
-        <f t="shared" si="12"/>
+      <c r="N102" s="2">
+        <f t="shared" si="20"/>
         <v>0.26771309999999998</v>
       </c>
     </row>
-    <row r="82" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J82" s="2">
+    <row r="103" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J103" s="2">
         <v>10</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K103" s="4">
         <v>9.0963899999999998E-5</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M103" s="2">
         <v>2.98542</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N103" s="2">
         <v>0.29745899999999997</v>
       </c>
     </row>
